--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_24_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_24_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>708542.2338015245</v>
+        <v>704375.7007998963</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6528279.443747057</v>
+        <v>6528279.443747053</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4490333.85252481</v>
+        <v>4490333.852524811</v>
       </c>
     </row>
     <row r="11">
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>30.58073358141467</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>31.25784031357141</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>38.83972215570805</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
-        <v>38.83972215570805</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>204.8426041147488</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>382.0832367239141</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1539,16 +1539,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>244.9224481452711</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>157.194380022116</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>197.6313432876045</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>174.0227396099806</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>84.34003022996011</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>91.05737951001773</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>227.0709978853841</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>36.93734129079091</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>146.4491278978889</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2010,19 +2010,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>38.01997492189339</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.1248887101453</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>240.7599018511625</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2241,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.677204281243952</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2250,13 +2250,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>164.6555346827751</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2323,10 +2323,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>301.0276225840818</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.3474170061614</v>
@@ -2377,16 +2377,16 @@
         <v>256.4743901009363</v>
       </c>
       <c r="V23" t="n">
-        <v>337.3597664942229</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>83.48997313787744</v>
       </c>
       <c r="H24" t="n">
-        <v>31.26186115178159</v>
+        <v>31.26186115178158</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>43.47982952007818</v>
+        <v>43.47982952007817</v>
       </c>
       <c r="T24" t="n">
         <v>124.6798257545734</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>146.4699864676923</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2493,10 +2493,10 @@
         <v>163.0624000411058</v>
       </c>
       <c r="H25" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>239.6907226285777</v>
@@ -2541,10 +2541,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>130.8588857901535</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>109.9554170050512</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>38.46815833415825</v>
       </c>
       <c r="T26" t="n">
-        <v>91.46283505123041</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>83.48997313787744</v>
       </c>
       <c r="H27" t="n">
-        <v>31.26186115178159</v>
+        <v>31.26186115178158</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>43.47982952007818</v>
+        <v>43.47982952007817</v>
       </c>
       <c r="T27" t="n">
         <v>124.6798257545734</v>
@@ -2718,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>134.8550812659132</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.6907226285777</v>
@@ -2772,10 +2772,10 @@
         <v>275.6010546203353</v>
       </c>
       <c r="V28" t="n">
-        <v>250.8506316928924</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2794,19 +2794,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>326.355050354437</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>215.1999731177263</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>83.48997313787744</v>
       </c>
       <c r="H30" t="n">
-        <v>31.26186115178159</v>
+        <v>31.26186115178158</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>43.47982952007818</v>
+        <v>43.47982952007817</v>
       </c>
       <c r="T30" t="n">
         <v>124.6798257545734</v>
@@ -2952,25 +2952,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>10.9139412881975</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.0624000411058</v>
       </c>
       <c r="H31" t="n">
-        <v>11.36801365453676</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>142.4356049655858</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U31" t="n">
         <v>275.6010546203353</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>199.837618822081</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>3.769207491218085</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>38.46815833415825</v>
       </c>
       <c r="T32" t="n">
         <v>209.3474170061614</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>83.48997313787744</v>
       </c>
       <c r="H33" t="n">
-        <v>31.26186115178159</v>
+        <v>31.26186115178158</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>43.47982952007818</v>
+        <v>43.47982952007817</v>
       </c>
       <c r="T33" t="n">
         <v>124.6798257545734</v>
@@ -3189,25 +3189,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>84.94899039315167</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>239.6907226285777</v>
+        <v>210.326591023998</v>
       </c>
       <c r="U34" t="n">
         <v>275.6010546203353</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.4377336227562</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>60.55032651355646</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>38.46815833415827</v>
+        <v>38.46815833415825</v>
       </c>
       <c r="T35" t="n">
         <v>209.3474170061614</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>261.5012752729514</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>83.48997313787744</v>
       </c>
       <c r="H36" t="n">
-        <v>31.26186115178159</v>
+        <v>31.26186115178158</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>43.47982952007818</v>
+        <v>43.47982952007817</v>
       </c>
       <c r="T36" t="n">
         <v>124.6798257545734</v>
@@ -3426,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.0624000411058</v>
       </c>
       <c r="H37" t="n">
-        <v>130.7417251547865</v>
+        <v>98.66321662879261</v>
       </c>
       <c r="I37" t="n">
-        <v>44.39142900390168</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>395.4377336227562</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.3474170061614</v>
+        <v>126.02360789095</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>303.6353037059478</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>83.48997313787744</v>
       </c>
       <c r="H39" t="n">
-        <v>31.26186115178159</v>
+        <v>31.26186115178158</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>43.47982952007818</v>
+        <v>43.47982952007817</v>
       </c>
       <c r="T39" t="n">
         <v>124.6798257545734</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.9367903632375</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3672,7 +3672,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>145.5758518932816</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.6907226285777</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3748,10 +3748,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>38.46815833415827</v>
+        <v>38.46815833415825</v>
       </c>
       <c r="T41" t="n">
         <v>209.3474170061614</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>161.3694604879247</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>57.61577612817458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>83.48997313787744</v>
       </c>
       <c r="H42" t="n">
-        <v>31.26186115178159</v>
+        <v>31.26186115178158</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>43.47982952007818</v>
+        <v>43.47982952007817</v>
       </c>
       <c r="T42" t="n">
         <v>124.6798257545734</v>
@@ -3903,19 +3903,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>134.8550812659132</v>
       </c>
       <c r="E43" t="n">
-        <v>150.761727864477</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.6907226285777</v>
@@ -3957,7 +3957,7 @@
         <v>275.6010546203353</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3979,19 +3979,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>337.9236874789427</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>232.5021173289207</v>
       </c>
       <c r="G44" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>38.46815833415824</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4073,7 +4073,7 @@
         <v>83.48997313787744</v>
       </c>
       <c r="H45" t="n">
-        <v>31.26186115178159</v>
+        <v>31.26186115178158</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>43.47982952007818</v>
+        <v>43.47982952007817</v>
       </c>
       <c r="T45" t="n">
         <v>124.6798257545734</v>
@@ -4137,16 +4137,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>43.79669403790405</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.0624000411058</v>
@@ -4155,7 +4155,7 @@
         <v>130.7417251547865</v>
       </c>
       <c r="I46" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.4356049655858</v>
+        <v>83.9887931899426</v>
       </c>
       <c r="T46" t="n">
         <v>239.6907226285777</v>
@@ -4200,10 +4200,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34.19483012401903</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="C9" t="n">
-        <v>34.19483012401903</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="D9" t="n">
-        <v>3.305200243802188</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="E9" t="n">
-        <v>3.305200243802188</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="F9" t="n">
-        <v>3.305200243802188</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="G9" t="n">
-        <v>3.305200243802188</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
@@ -4910,25 +4910,25 @@
         <v>117.6594827452864</v>
       </c>
       <c r="S9" t="n">
-        <v>117.6594827452864</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="T9" t="n">
         <v>75.92715643465272</v>
       </c>
       <c r="U9" t="n">
-        <v>34.19483012401903</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="V9" t="n">
-        <v>34.19483012401903</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="W9" t="n">
-        <v>34.19483012401903</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="X9" t="n">
-        <v>34.19483012401903</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="Y9" t="n">
-        <v>34.19483012401903</v>
+        <v>75.92715643465272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="C10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="D10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="E10" t="n">
         <v>3.305200243802188</v>
@@ -4989,25 +4989,25 @@
         <v>42.53724282532548</v>
       </c>
       <c r="S10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="T10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="U10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="V10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="W10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="X10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>702.8707663625333</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="C11" t="n">
-        <v>702.8707663625333</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D11" t="n">
-        <v>702.8707663625333</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895473</v>
@@ -5041,13 +5041,13 @@
         <v>118.4065018001351</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L11" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>1526.868684372189</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W11" t="n">
-        <v>1122.013229783223</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X11" t="n">
-        <v>702.8707663625333</v>
+        <v>662.4043965773304</v>
       </c>
       <c r="Y11" t="n">
-        <v>702.8707663625333</v>
+        <v>254.1182728769838</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5111,7 +5111,7 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H12" t="n">
         <v>47.20655154895473</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>732.1113136517137</v>
+        <v>783.2407265647034</v>
       </c>
       <c r="C13" t="n">
-        <v>559.5496021349386</v>
+        <v>610.6790150479284</v>
       </c>
       <c r="D13" t="n">
-        <v>393.6716093364613</v>
+        <v>444.801022249451</v>
       </c>
       <c r="E13" t="n">
-        <v>223.9136055871985</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895473</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
         <v>47.20655154895473</v>
@@ -5205,13 +5205,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>828.1746199579902</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>1412.355695376305</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180195</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O13" t="n">
         <v>1657.620488527956</v>
@@ -5235,16 +5235,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774551</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1447.87077063617</v>
       </c>
       <c r="X13" t="n">
-        <v>890.893515694255</v>
+        <v>1202.479015969582</v>
       </c>
       <c r="Y13" t="n">
-        <v>732.1113136517137</v>
+        <v>975.0593452836906</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1120.886428673516</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="C14" t="n">
-        <v>682.743955856939</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D14" t="n">
-        <v>246.8341710313835</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E14" t="n">
-        <v>246.8341710313835</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F14" t="n">
-        <v>246.8341710313835</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
         <v>2043.069798152528</v>
@@ -5311,19 +5311,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W14" t="n">
-        <v>1955.47212285877</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="X14" t="n">
-        <v>1955.47212285877</v>
+        <v>1562.85939084249</v>
       </c>
       <c r="Y14" t="n">
-        <v>1547.185999158423</v>
+        <v>1154.573267142144</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>663.4738450083632</v>
+        <v>852.4895006216354</v>
       </c>
       <c r="C16" t="n">
-        <v>578.2818952811308</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D16" t="n">
-        <v>412.4039024826535</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E16" t="n">
-        <v>242.6458987333908</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F16" t="n">
-        <v>242.6458987333908</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
         <v>47.20655154895473</v>
@@ -5445,13 +5445,13 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1690.512214359095</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N16" t="n">
-        <v>1818.011126162985</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O16" t="n">
-        <v>1935.777007510746</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P16" t="n">
         <v>2105.896438675981</v>
@@ -5478,10 +5478,10 @@
         <v>1136.285270360843</v>
       </c>
       <c r="X16" t="n">
-        <v>890.893515694255</v>
+        <v>1044.308119340623</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.4738450083632</v>
+        <v>1044.308119340623</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>276.5711958776255</v>
+        <v>1748.628930102402</v>
       </c>
       <c r="C17" t="n">
-        <v>276.5711958776255</v>
+        <v>1310.486457285825</v>
       </c>
       <c r="D17" t="n">
-        <v>276.5711958776255</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E17" t="n">
-        <v>276.5711958776255</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F17" t="n">
-        <v>276.5711958776255</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
         <v>47.20655154895473</v>
@@ -5512,25 +5512,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435805</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
         <v>2043.069798152528</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2323.017131699463</v>
       </c>
       <c r="T17" t="n">
-        <v>2148.556325916849</v>
+        <v>2111.245880168575</v>
       </c>
       <c r="U17" t="n">
-        <v>1889.485634438363</v>
+        <v>2111.245880168575</v>
       </c>
       <c r="V17" t="n">
-        <v>1526.868684372189</v>
+        <v>1748.628930102402</v>
       </c>
       <c r="W17" t="n">
-        <v>1122.013229783223</v>
+        <v>1748.628930102402</v>
       </c>
       <c r="X17" t="n">
-        <v>702.8707663625333</v>
+        <v>1748.628930102402</v>
       </c>
       <c r="Y17" t="n">
-        <v>702.8707663625333</v>
+        <v>1748.628930102402</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
         <v>341.0245550495863</v>
@@ -5585,7 +5585,7 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
         <v>47.20655154895473</v>
@@ -5603,7 +5603,7 @@
         <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>757.7926570868869</v>
+        <v>852.4895006216354</v>
       </c>
       <c r="C19" t="n">
-        <v>585.2309455701119</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D19" t="n">
-        <v>419.3529527716346</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E19" t="n">
-        <v>419.3529527716346</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F19" t="n">
-        <v>242.6458987333908</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
         <v>47.20655154895473</v>
@@ -5682,13 +5682,13 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M19" t="n">
-        <v>1690.512214359095</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N19" t="n">
-        <v>1887.361501150536</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O19" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P19" t="n">
         <v>2105.896438675981</v>
@@ -5703,22 +5703,22 @@
         <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>2215.901038951971</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1937.514407000714</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1650.558898871144</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W19" t="n">
-        <v>1378.532494457436</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>1133.140739790848</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y19" t="n">
-        <v>905.7210691049565</v>
+        <v>852.4895006216354</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>907.4849108292025</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="C20" t="n">
-        <v>907.4849108292025</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D20" t="n">
-        <v>471.575126003647</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E20" t="n">
-        <v>471.575126003647</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J20" t="n">
         <v>276.0532770435805</v>
@@ -5758,13 +5758,13 @@
         <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867021</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
         <v>1775.969506973259</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U20" t="n">
-        <v>2101.256885969251</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V20" t="n">
-        <v>1738.639935903077</v>
+        <v>2117.135757396057</v>
       </c>
       <c r="W20" t="n">
-        <v>1333.78448131411</v>
+        <v>1712.28030280709</v>
       </c>
       <c r="X20" t="n">
-        <v>1333.78448131411</v>
+        <v>1293.137839386401</v>
       </c>
       <c r="Y20" t="n">
-        <v>1333.78448131411</v>
+        <v>884.8517156860543</v>
       </c>
     </row>
     <row r="21">
@@ -5825,7 +5825,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
         <v>81.42328772043084</v>
@@ -5837,10 +5837,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>713.9024503859694</v>
+        <v>858.3289888817344</v>
       </c>
       <c r="C22" t="n">
-        <v>713.9024503859694</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D22" t="n">
-        <v>548.0244575874921</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E22" t="n">
-        <v>378.2664538382293</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F22" t="n">
-        <v>211.9477319364363</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
@@ -5919,10 +5919,10 @@
         <v>413.3628026016838</v>
       </c>
       <c r="M22" t="n">
-        <v>992.6864461505235</v>
+        <v>997.5438780199984</v>
       </c>
       <c r="N22" t="n">
-        <v>1120.185357954413</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O22" t="n">
         <v>1657.620488527956</v>
@@ -5934,28 +5934,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T22" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U22" t="n">
-        <v>1937.514407000714</v>
+        <v>2081.940945496479</v>
       </c>
       <c r="V22" t="n">
-        <v>1650.558898871144</v>
+        <v>1794.985437366909</v>
       </c>
       <c r="W22" t="n">
-        <v>1378.532494457436</v>
+        <v>1522.959032953201</v>
       </c>
       <c r="X22" t="n">
-        <v>1133.140739790848</v>
+        <v>1277.567278286613</v>
       </c>
       <c r="Y22" t="n">
-        <v>905.7210691049565</v>
+        <v>1050.147607600722</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1189.881738470227</v>
+        <v>791.1771605880602</v>
       </c>
       <c r="C23" t="n">
-        <v>751.7392656536506</v>
+        <v>353.0346877714836</v>
       </c>
       <c r="D23" t="n">
-        <v>751.7392656536506</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="E23" t="n">
-        <v>317.9645208119458</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="F23" t="n">
-        <v>317.9645208119458</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="G23" t="n">
-        <v>317.9645208119458</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="H23" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="I23" t="n">
         <v>122.8353788882626</v>
       </c>
       <c r="J23" t="n">
-        <v>286.3580891786137</v>
+        <v>286.358089178614</v>
       </c>
       <c r="K23" t="n">
-        <v>531.4362430141193</v>
+        <v>531.4362430141197</v>
       </c>
       <c r="L23" t="n">
-        <v>835.4773641398451</v>
+        <v>835.4773641398457</v>
       </c>
       <c r="M23" t="n">
-        <v>1173.781693844502</v>
+        <v>1173.781693844503</v>
       </c>
       <c r="N23" t="n">
-        <v>1517.560141290067</v>
+        <v>1517.560141290068</v>
       </c>
       <c r="O23" t="n">
-        <v>1842.180380803855</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P23" t="n">
-        <v>2119.236244874199</v>
+        <v>2119.236244874201</v>
       </c>
       <c r="Q23" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516459</v>
       </c>
       <c r="R23" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="S23" t="n">
-        <v>2409.462380959787</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="T23" t="n">
-        <v>2198.000343579825</v>
+        <v>2236.857069169886</v>
       </c>
       <c r="U23" t="n">
-        <v>1938.935303073829</v>
+        <v>1977.79202866389</v>
       </c>
       <c r="V23" t="n">
-        <v>1598.167862170574</v>
+        <v>1615.175078597716</v>
       </c>
       <c r="W23" t="n">
-        <v>1598.167862170574</v>
+        <v>1210.31962400875</v>
       </c>
       <c r="X23" t="n">
-        <v>1598.167862170574</v>
+        <v>791.1771605880602</v>
       </c>
       <c r="Y23" t="n">
-        <v>1189.881738470227</v>
+        <v>791.1771605880602</v>
       </c>
     </row>
     <row r="24">
@@ -6047,49 +6047,49 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C24" t="n">
-        <v>437.4718677682566</v>
+        <v>437.4718677682567</v>
       </c>
       <c r="D24" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E24" t="n">
-        <v>248.2611642417636</v>
+        <v>248.2611642417637</v>
       </c>
       <c r="F24" t="n">
-        <v>164.8773258579252</v>
+        <v>164.8773258579253</v>
       </c>
       <c r="G24" t="n">
-        <v>80.54401965804902</v>
+        <v>80.54401965804905</v>
       </c>
       <c r="H24" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="I24" t="n">
-        <v>48.96638213099691</v>
+        <v>84.45847150237347</v>
       </c>
       <c r="J24" t="n">
-        <v>146.3593881372162</v>
+        <v>181.8514775085928</v>
       </c>
       <c r="K24" t="n">
-        <v>312.8195479316071</v>
+        <v>348.3116373029838</v>
       </c>
       <c r="L24" t="n">
-        <v>536.645775234791</v>
+        <v>572.1378646061679</v>
       </c>
       <c r="M24" t="n">
-        <v>797.8404252965006</v>
+        <v>833.3325146678775</v>
       </c>
       <c r="N24" t="n">
-        <v>1065.948120536406</v>
+        <v>1101.440209907783</v>
       </c>
       <c r="O24" t="n">
-        <v>1311.214282591063</v>
+        <v>1346.70637196244</v>
       </c>
       <c r="P24" t="n">
-        <v>1508.062000686731</v>
+        <v>1543.554090058108</v>
       </c>
       <c r="Q24" t="n">
-        <v>1639.649487191768</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R24" t="n">
         <v>1677.151305564151</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.785408143282</v>
+        <v>704.2104052392312</v>
       </c>
       <c r="C25" t="n">
-        <v>920.2236966265071</v>
+        <v>556.260923958734</v>
       </c>
       <c r="D25" t="n">
-        <v>754.3457038280299</v>
+        <v>390.3829311602567</v>
       </c>
       <c r="E25" t="n">
-        <v>584.5877000787672</v>
+        <v>390.3829311602567</v>
       </c>
       <c r="F25" t="n">
-        <v>407.8806460405234</v>
+        <v>213.6758771220129</v>
       </c>
       <c r="G25" t="n">
-        <v>243.1711510495074</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="H25" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="I25" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="J25" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284527</v>
       </c>
       <c r="K25" t="n">
-        <v>571.8138742903014</v>
+        <v>210.4757345544761</v>
       </c>
       <c r="L25" t="n">
-        <v>1118.511567973113</v>
+        <v>338.9635464693266</v>
       </c>
       <c r="M25" t="n">
-        <v>1713.467817497658</v>
+        <v>789.7175400762173</v>
       </c>
       <c r="N25" t="n">
-        <v>1845.718969384822</v>
+        <v>1364.227495121026</v>
       </c>
       <c r="O25" t="n">
-        <v>2085.366207689827</v>
+        <v>1906.052088583819</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.89120767241</v>
+        <v>2358.083982536744</v>
       </c>
       <c r="Q25" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.45167457219</v>
       </c>
       <c r="R25" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="S25" t="n">
-        <v>2304.444758099758</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="T25" t="n">
-        <v>2062.332917060791</v>
+        <v>2206.20726551088</v>
       </c>
       <c r="U25" t="n">
-        <v>1783.948013403887</v>
+        <v>1927.822361853976</v>
       </c>
       <c r="V25" t="n">
-        <v>1496.992505274317</v>
+        <v>1640.866853724406</v>
       </c>
       <c r="W25" t="n">
-        <v>1224.966100860609</v>
+        <v>1368.840449310698</v>
       </c>
       <c r="X25" t="n">
-        <v>1092.785408143282</v>
+        <v>1123.44869464411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1092.785408143282</v>
+        <v>896.0290239582184</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>753.8743056375013</v>
+        <v>595.9422447394325</v>
       </c>
       <c r="C26" t="n">
-        <v>753.8743056375013</v>
+        <v>595.9422447394325</v>
       </c>
       <c r="D26" t="n">
-        <v>317.9645208119458</v>
+        <v>160.0324599138769</v>
       </c>
       <c r="E26" t="n">
-        <v>317.9645208119458</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="F26" t="n">
-        <v>317.9645208119458</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="G26" t="n">
-        <v>317.9645208119458</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="H26" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="I26" t="n">
-        <v>122.835378888263</v>
+        <v>122.8353788882629</v>
       </c>
       <c r="J26" t="n">
         <v>286.3580891786141</v>
       </c>
       <c r="K26" t="n">
-        <v>531.4362430141197</v>
+        <v>531.4362430141198</v>
       </c>
       <c r="L26" t="n">
-        <v>835.4773641398455</v>
+        <v>835.4773641398457</v>
       </c>
       <c r="M26" t="n">
-        <v>1173.781693844502</v>
+        <v>1173.781693844503</v>
       </c>
       <c r="N26" t="n">
-        <v>1517.560141290067</v>
+        <v>1517.560141290068</v>
       </c>
       <c r="O26" t="n">
         <v>1842.180380803856</v>
       </c>
       <c r="P26" t="n">
-        <v>2119.2362448742</v>
+        <v>2119.236244874201</v>
       </c>
       <c r="Q26" t="n">
-        <v>2327.293660516458</v>
+        <v>2327.293660516459</v>
       </c>
       <c r="R26" t="n">
-        <v>2448.319106549846</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="S26" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959788</v>
       </c>
       <c r="T26" t="n">
-        <v>2355.932404477896</v>
+        <v>2198.000343579827</v>
       </c>
       <c r="U26" t="n">
-        <v>2355.932404477896</v>
+        <v>2198.000343579827</v>
       </c>
       <c r="V26" t="n">
-        <v>1993.315454411723</v>
+        <v>1835.383393513654</v>
       </c>
       <c r="W26" t="n">
-        <v>1588.459999822756</v>
+        <v>1430.527938924687</v>
       </c>
       <c r="X26" t="n">
-        <v>1588.459999822756</v>
+        <v>1430.527938924687</v>
       </c>
       <c r="Y26" t="n">
-        <v>1180.173876122409</v>
+        <v>1022.24181522434</v>
       </c>
     </row>
     <row r="27">
@@ -6284,46 +6284,46 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C27" t="n">
-        <v>437.4718677682566</v>
+        <v>437.4718677682567</v>
       </c>
       <c r="D27" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E27" t="n">
-        <v>248.2611642417636</v>
+        <v>248.2611642417637</v>
       </c>
       <c r="F27" t="n">
-        <v>164.8773258579252</v>
+        <v>164.8773258579253</v>
       </c>
       <c r="G27" t="n">
-        <v>80.54401965804902</v>
+        <v>80.54401965804905</v>
       </c>
       <c r="H27" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="I27" t="n">
-        <v>84.45847150237343</v>
+        <v>84.45847150237347</v>
       </c>
       <c r="J27" t="n">
-        <v>181.8514775085927</v>
+        <v>181.8514775085928</v>
       </c>
       <c r="K27" t="n">
-        <v>348.3116373029836</v>
+        <v>348.3116373029838</v>
       </c>
       <c r="L27" t="n">
-        <v>572.1378646061676</v>
+        <v>572.1378646061679</v>
       </c>
       <c r="M27" t="n">
-        <v>833.332514667877</v>
+        <v>833.3325146678775</v>
       </c>
       <c r="N27" t="n">
-        <v>1101.440209907782</v>
+        <v>1039.446624623284</v>
       </c>
       <c r="O27" t="n">
-        <v>1346.70637196244</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P27" t="n">
-        <v>1543.554090058107</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q27" t="n">
         <v>1613.147991278647</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>865.9334928749543</v>
+        <v>704.2104052392312</v>
       </c>
       <c r="C28" t="n">
-        <v>693.3717813581792</v>
+        <v>531.6486937224562</v>
       </c>
       <c r="D28" t="n">
-        <v>527.4937885597019</v>
+        <v>395.4314399185035</v>
       </c>
       <c r="E28" t="n">
-        <v>357.7357848104392</v>
+        <v>225.6734361692407</v>
       </c>
       <c r="F28" t="n">
-        <v>181.0287307721954</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="G28" t="n">
-        <v>181.0287307721954</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="H28" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="I28" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="J28" t="n">
-        <v>110.0676242284526</v>
+        <v>110.0676242284527</v>
       </c>
       <c r="K28" t="n">
-        <v>210.475734554476</v>
+        <v>210.4757345544761</v>
       </c>
       <c r="L28" t="n">
-        <v>338.9635464693263</v>
+        <v>542.2681845220138</v>
       </c>
       <c r="M28" t="n">
-        <v>933.9197959938717</v>
+        <v>1137.224434046559</v>
       </c>
       <c r="N28" t="n">
-        <v>1508.42975103868</v>
+        <v>1711.734389091368</v>
       </c>
       <c r="O28" t="n">
-        <v>2050.254344501474</v>
+        <v>2253.558982554161</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.891207672411</v>
+        <v>2358.083982536744</v>
       </c>
       <c r="Q28" t="n">
-        <v>2430.451674572189</v>
+        <v>2430.45167457219</v>
       </c>
       <c r="R28" t="n">
-        <v>2448.319106549846</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="S28" t="n">
-        <v>2304.444758099759</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="T28" t="n">
-        <v>2062.332917060792</v>
+        <v>2206.20726551088</v>
       </c>
       <c r="U28" t="n">
-        <v>1783.948013403888</v>
+        <v>1927.822361853976</v>
       </c>
       <c r="V28" t="n">
-        <v>1530.563536946421</v>
+        <v>1640.866853724406</v>
       </c>
       <c r="W28" t="n">
-        <v>1530.563536946421</v>
+        <v>1368.840449310698</v>
       </c>
       <c r="X28" t="n">
-        <v>1285.171782279833</v>
+        <v>1123.44869464411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1057.752111593941</v>
+        <v>896.0290239582184</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1132.349994758291</v>
+        <v>1240.260122578077</v>
       </c>
       <c r="C29" t="n">
-        <v>694.2075219417147</v>
+        <v>1240.260122578077</v>
       </c>
       <c r="D29" t="n">
-        <v>694.2075219417147</v>
+        <v>910.6085565634939</v>
       </c>
       <c r="E29" t="n">
-        <v>694.2075219417147</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F29" t="n">
-        <v>266.3400923509225</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="G29" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="H29" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="I29" t="n">
         <v>122.8353788882626</v>
       </c>
       <c r="J29" t="n">
-        <v>286.3580891786135</v>
+        <v>286.358089178614</v>
       </c>
       <c r="K29" t="n">
-        <v>531.4362430141191</v>
+        <v>531.4362430141197</v>
       </c>
       <c r="L29" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398455</v>
       </c>
       <c r="M29" t="n">
-        <v>1173.781693844502</v>
+        <v>1173.781693844503</v>
       </c>
       <c r="N29" t="n">
-        <v>1517.560141290067</v>
+        <v>1517.560141290068</v>
       </c>
       <c r="O29" t="n">
-        <v>1842.180380803855</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P29" t="n">
-        <v>2119.236244874199</v>
+        <v>2119.236244874201</v>
       </c>
       <c r="Q29" t="n">
-        <v>2327.293660516458</v>
+        <v>2327.293660516459</v>
       </c>
       <c r="R29" t="n">
-        <v>2448.319106549846</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="S29" t="n">
-        <v>2448.319106549846</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="T29" t="n">
-        <v>2236.857069169885</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="U29" t="n">
-        <v>1977.792028663888</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="V29" t="n">
-        <v>1977.792028663888</v>
+        <v>2085.702156483674</v>
       </c>
       <c r="W29" t="n">
-        <v>1977.792028663888</v>
+        <v>2085.702156483674</v>
       </c>
       <c r="X29" t="n">
-        <v>1558.649565243199</v>
+        <v>1666.559693062984</v>
       </c>
       <c r="Y29" t="n">
-        <v>1558.649565243199</v>
+        <v>1666.559693062984</v>
       </c>
     </row>
     <row r="30">
@@ -6521,40 +6521,40 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C30" t="n">
-        <v>437.4718677682566</v>
+        <v>437.4718677682567</v>
       </c>
       <c r="D30" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E30" t="n">
-        <v>248.2611642417636</v>
+        <v>248.2611642417637</v>
       </c>
       <c r="F30" t="n">
-        <v>164.8773258579252</v>
+        <v>164.8773258579253</v>
       </c>
       <c r="G30" t="n">
-        <v>80.54401965804902</v>
+        <v>80.54401965804905</v>
       </c>
       <c r="H30" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="I30" t="n">
-        <v>84.45847150237343</v>
+        <v>84.45847150237348</v>
       </c>
       <c r="J30" t="n">
-        <v>181.8514775085927</v>
+        <v>181.8514775085928</v>
       </c>
       <c r="K30" t="n">
-        <v>348.3116373029836</v>
+        <v>348.3116373029838</v>
       </c>
       <c r="L30" t="n">
-        <v>572.1378646061676</v>
+        <v>572.1378646061679</v>
       </c>
       <c r="M30" t="n">
-        <v>833.332514667877</v>
+        <v>833.3325146678776</v>
       </c>
       <c r="N30" t="n">
-        <v>1101.440209907782</v>
+        <v>1039.446624623284</v>
       </c>
       <c r="O30" t="n">
         <v>1284.712786677942</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.4478978281106</v>
+        <v>560.3360567891443</v>
       </c>
       <c r="C31" t="n">
-        <v>629.8861863113356</v>
+        <v>549.3118736697529</v>
       </c>
       <c r="D31" t="n">
-        <v>464.0081935128583</v>
+        <v>383.4338808712756</v>
       </c>
       <c r="E31" t="n">
-        <v>464.0081935128583</v>
+        <v>213.6758771220129</v>
       </c>
       <c r="F31" t="n">
-        <v>287.3011394746145</v>
+        <v>213.6758771220129</v>
       </c>
       <c r="G31" t="n">
-        <v>122.5916444835985</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="H31" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="I31" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="J31" t="n">
-        <v>110.0676242284526</v>
+        <v>196.6473093931425</v>
       </c>
       <c r="K31" t="n">
-        <v>210.475734554476</v>
+        <v>571.8138742903016</v>
       </c>
       <c r="L31" t="n">
-        <v>757.1734282372873</v>
+        <v>1118.511567973113</v>
       </c>
       <c r="M31" t="n">
-        <v>892.6458105809197</v>
+        <v>1483.452817595311</v>
       </c>
       <c r="N31" t="n">
-        <v>1467.155765625728</v>
+        <v>1615.703969482475</v>
       </c>
       <c r="O31" t="n">
-        <v>2008.980359088521</v>
+        <v>1737.859313719487</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.891207672411</v>
+        <v>2189.891207672412</v>
       </c>
       <c r="Q31" t="n">
-        <v>2430.451674572189</v>
+        <v>2430.45167457219</v>
       </c>
       <c r="R31" t="n">
-        <v>2448.319106549846</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="S31" t="n">
-        <v>2304.444758099759</v>
+        <v>2304.44475809976</v>
       </c>
       <c r="T31" t="n">
-        <v>2304.444758099759</v>
+        <v>2062.332917060793</v>
       </c>
       <c r="U31" t="n">
-        <v>2026.059854442855</v>
+        <v>1783.948013403889</v>
       </c>
       <c r="V31" t="n">
-        <v>1739.104346313286</v>
+        <v>1496.992505274319</v>
       </c>
       <c r="W31" t="n">
-        <v>1467.077941899577</v>
+        <v>1224.966100860611</v>
       </c>
       <c r="X31" t="n">
-        <v>1221.68618723299</v>
+        <v>979.5743461940233</v>
       </c>
       <c r="Y31" t="n">
-        <v>994.2665165470978</v>
+        <v>752.1546755081315</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1356.793384614834</v>
+        <v>1352.55830967423</v>
       </c>
       <c r="C32" t="n">
-        <v>918.6509117982573</v>
+        <v>914.4158368576536</v>
       </c>
       <c r="D32" t="n">
-        <v>482.7411269727017</v>
+        <v>910.6085565634939</v>
       </c>
       <c r="E32" t="n">
-        <v>48.96638213099691</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F32" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="G32" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="H32" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="I32" t="n">
         <v>122.8353788882626</v>
       </c>
       <c r="J32" t="n">
-        <v>286.3580891786137</v>
+        <v>286.358089178614</v>
       </c>
       <c r="K32" t="n">
-        <v>531.4362430141193</v>
+        <v>531.4362430141197</v>
       </c>
       <c r="L32" t="n">
-        <v>835.4773641398451</v>
+        <v>835.4773641398457</v>
       </c>
       <c r="M32" t="n">
-        <v>1173.781693844502</v>
+        <v>1173.781693844503</v>
       </c>
       <c r="N32" t="n">
-        <v>1517.560141290067</v>
+        <v>1517.560141290068</v>
       </c>
       <c r="O32" t="n">
-        <v>1842.180380803855</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P32" t="n">
-        <v>2119.236244874199</v>
+        <v>2119.236244874201</v>
       </c>
       <c r="Q32" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516459</v>
       </c>
       <c r="R32" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="S32" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959788</v>
       </c>
       <c r="T32" t="n">
-        <v>2236.857069169884</v>
+        <v>2198.000343579827</v>
       </c>
       <c r="U32" t="n">
-        <v>1977.792028663888</v>
+        <v>2198.000343579827</v>
       </c>
       <c r="V32" t="n">
-        <v>1977.792028663888</v>
+        <v>2198.000343579827</v>
       </c>
       <c r="W32" t="n">
-        <v>1977.792028663888</v>
+        <v>2198.000343579827</v>
       </c>
       <c r="X32" t="n">
-        <v>1558.649565243199</v>
+        <v>1778.857880159138</v>
       </c>
       <c r="Y32" t="n">
-        <v>1558.649565243199</v>
+        <v>1778.857880159138</v>
       </c>
     </row>
     <row r="33">
@@ -6758,46 +6758,46 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C33" t="n">
-        <v>437.4718677682566</v>
+        <v>437.4718677682567</v>
       </c>
       <c r="D33" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E33" t="n">
-        <v>248.2611642417636</v>
+        <v>248.2611642417637</v>
       </c>
       <c r="F33" t="n">
-        <v>164.8773258579252</v>
+        <v>164.8773258579253</v>
       </c>
       <c r="G33" t="n">
-        <v>80.54401965804902</v>
+        <v>80.54401965804905</v>
       </c>
       <c r="H33" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="I33" t="n">
-        <v>48.96638213099691</v>
+        <v>84.45847150237347</v>
       </c>
       <c r="J33" t="n">
-        <v>146.3593881372162</v>
+        <v>181.8514775085928</v>
       </c>
       <c r="K33" t="n">
-        <v>312.8195479316071</v>
+        <v>348.3116373029838</v>
       </c>
       <c r="L33" t="n">
-        <v>536.645775234791</v>
+        <v>572.1378646061679</v>
       </c>
       <c r="M33" t="n">
-        <v>797.8404252965006</v>
+        <v>833.3325146678775</v>
       </c>
       <c r="N33" t="n">
-        <v>1065.948120536406</v>
+        <v>1101.440209907783</v>
       </c>
       <c r="O33" t="n">
-        <v>1284.712786677942</v>
+        <v>1346.70637196244</v>
       </c>
       <c r="P33" t="n">
-        <v>1481.560504773609</v>
+        <v>1543.554090058108</v>
       </c>
       <c r="Q33" t="n">
         <v>1613.147991278647</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>704.2104052392294</v>
+        <v>733.8711442337559</v>
       </c>
       <c r="C34" t="n">
-        <v>704.2104052392294</v>
+        <v>561.3094327169808</v>
       </c>
       <c r="D34" t="n">
-        <v>538.3324124407521</v>
+        <v>395.4314399185035</v>
       </c>
       <c r="E34" t="n">
-        <v>538.3324124407521</v>
+        <v>225.6734361692407</v>
       </c>
       <c r="F34" t="n">
-        <v>361.6253584025084</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="G34" t="n">
-        <v>196.9158634114924</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="H34" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="I34" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="J34" t="n">
         <v>196.6473093931425</v>
       </c>
       <c r="K34" t="n">
-        <v>571.8138742903014</v>
+        <v>571.8138742903016</v>
       </c>
       <c r="L34" t="n">
-        <v>888.4965680707644</v>
+        <v>1118.511567973113</v>
       </c>
       <c r="M34" t="n">
-        <v>1483.45281759531</v>
+        <v>1483.452817595311</v>
       </c>
       <c r="N34" t="n">
-        <v>1615.703969482473</v>
+        <v>1615.703969482475</v>
       </c>
       <c r="O34" t="n">
-        <v>1737.859313719485</v>
+        <v>1737.859313719487</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.89120767241</v>
+        <v>2189.891207672412</v>
       </c>
       <c r="Q34" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.45167457219</v>
       </c>
       <c r="R34" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="S34" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="T34" t="n">
-        <v>2206.207265510878</v>
+        <v>2235.868004505405</v>
       </c>
       <c r="U34" t="n">
-        <v>1927.822361853974</v>
+        <v>1957.4831008485</v>
       </c>
       <c r="V34" t="n">
-        <v>1640.866853724404</v>
+        <v>1670.527592718931</v>
       </c>
       <c r="W34" t="n">
-        <v>1368.840449310696</v>
+        <v>1398.501188305222</v>
       </c>
       <c r="X34" t="n">
-        <v>1123.448694644108</v>
+        <v>1153.109433638635</v>
       </c>
       <c r="Y34" t="n">
-        <v>896.0290239582166</v>
+        <v>925.689762952743</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1312.175650711745</v>
+        <v>947.7028550852632</v>
       </c>
       <c r="C35" t="n">
-        <v>1312.175650711745</v>
+        <v>509.5603822686865</v>
       </c>
       <c r="D35" t="n">
-        <v>876.2658658861894</v>
+        <v>509.5603822686865</v>
       </c>
       <c r="E35" t="n">
-        <v>876.2658658861894</v>
+        <v>509.5603822686865</v>
       </c>
       <c r="F35" t="n">
-        <v>448.3984362953971</v>
+        <v>509.5603822686865</v>
       </c>
       <c r="G35" t="n">
-        <v>48.96638213099691</v>
+        <v>110.1283281042863</v>
       </c>
       <c r="H35" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="I35" t="n">
-        <v>122.8353788882622</v>
+        <v>122.8353788882629</v>
       </c>
       <c r="J35" t="n">
-        <v>286.3580891786135</v>
+        <v>286.358089178614</v>
       </c>
       <c r="K35" t="n">
-        <v>531.4362430141192</v>
+        <v>531.4362430141198</v>
       </c>
       <c r="L35" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398457</v>
       </c>
       <c r="M35" t="n">
-        <v>1173.781693844502</v>
+        <v>1173.781693844503</v>
       </c>
       <c r="N35" t="n">
-        <v>1517.560141290067</v>
+        <v>1517.560141290068</v>
       </c>
       <c r="O35" t="n">
-        <v>1842.180380803855</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P35" t="n">
-        <v>2119.236244874199</v>
+        <v>2119.236244874201</v>
       </c>
       <c r="Q35" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516459</v>
       </c>
       <c r="R35" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="S35" t="n">
-        <v>2409.462380959787</v>
+        <v>2409.462380959788</v>
       </c>
       <c r="T35" t="n">
-        <v>2198.000343579825</v>
+        <v>2198.000343579827</v>
       </c>
       <c r="U35" t="n">
-        <v>1938.935303073829</v>
+        <v>2198.000343579827</v>
       </c>
       <c r="V35" t="n">
-        <v>1576.318353007656</v>
+        <v>2198.000343579827</v>
       </c>
       <c r="W35" t="n">
-        <v>1312.175650711745</v>
+        <v>1793.14488899086</v>
       </c>
       <c r="X35" t="n">
-        <v>1312.175650711745</v>
+        <v>1374.002425570171</v>
       </c>
       <c r="Y35" t="n">
-        <v>1312.175650711745</v>
+        <v>1374.002425570171</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1315.096129917309</v>
+        <v>543.9283289316144</v>
       </c>
       <c r="C36" t="n">
-        <v>1208.639668753951</v>
+        <v>437.4718677682567</v>
       </c>
       <c r="D36" t="n">
-        <v>1113.549379900504</v>
+        <v>342.3815789148099</v>
       </c>
       <c r="E36" t="n">
-        <v>1019.428965227458</v>
+        <v>248.2611642417637</v>
       </c>
       <c r="F36" t="n">
-        <v>936.0451268436198</v>
+        <v>164.8773258579253</v>
       </c>
       <c r="G36" t="n">
-        <v>851.7118206437435</v>
+        <v>80.54401965804905</v>
       </c>
       <c r="H36" t="n">
-        <v>820.1341831166914</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="I36" t="n">
-        <v>855.6262724880679</v>
+        <v>84.45847150237347</v>
       </c>
       <c r="J36" t="n">
-        <v>891.0256932097896</v>
+        <v>181.8514775085928</v>
       </c>
       <c r="K36" t="n">
-        <v>1057.48585300418</v>
+        <v>348.3116373029838</v>
       </c>
       <c r="L36" t="n">
-        <v>1281.312080307365</v>
+        <v>572.1378646061679</v>
       </c>
       <c r="M36" t="n">
-        <v>1542.506730369074</v>
+        <v>833.3325146678775</v>
       </c>
       <c r="N36" t="n">
-        <v>1810.614425608979</v>
+        <v>1101.440209907783</v>
       </c>
       <c r="O36" t="n">
-        <v>2055.880587663637</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P36" t="n">
-        <v>2252.728305759304</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q36" t="n">
-        <v>2384.315792264341</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R36" t="n">
-        <v>2448.319106549845</v>
+        <v>1677.151305564151</v>
       </c>
       <c r="S36" t="n">
-        <v>2404.400086832595</v>
+        <v>1633.2322858469</v>
       </c>
       <c r="T36" t="n">
-        <v>2278.460868898682</v>
+        <v>1507.293067912987</v>
       </c>
       <c r="U36" t="n">
-        <v>2102.193518183778</v>
+        <v>1331.025717198083</v>
       </c>
       <c r="V36" t="n">
-        <v>1903.076000245777</v>
+        <v>1131.908199260083</v>
       </c>
       <c r="W36" t="n">
-        <v>1717.753245978971</v>
+        <v>946.5854449932767</v>
       </c>
       <c r="X36" t="n">
-        <v>1562.885810217851</v>
+        <v>791.7180092321568</v>
       </c>
       <c r="Y36" t="n">
-        <v>1436.400030997072</v>
+        <v>665.2322300113775</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.3360567891425</v>
+        <v>832.3624612028527</v>
       </c>
       <c r="C37" t="n">
-        <v>560.3360567891425</v>
+        <v>659.8007496860777</v>
       </c>
       <c r="D37" t="n">
-        <v>560.3360567891425</v>
+        <v>659.8007496860777</v>
       </c>
       <c r="E37" t="n">
-        <v>390.5780530398798</v>
+        <v>490.0427459368149</v>
       </c>
       <c r="F37" t="n">
-        <v>390.5780530398798</v>
+        <v>313.3356918985711</v>
       </c>
       <c r="G37" t="n">
-        <v>225.8685580488638</v>
+        <v>148.6261969075551</v>
       </c>
       <c r="H37" t="n">
-        <v>93.80620940766528</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="I37" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="J37" t="n">
         <v>196.6473093931425</v>
       </c>
       <c r="K37" t="n">
-        <v>571.8138742903014</v>
+        <v>571.8138742903016</v>
       </c>
       <c r="L37" t="n">
-        <v>700.3016862051518</v>
+        <v>1118.511567973113</v>
       </c>
       <c r="M37" t="n">
-        <v>1295.257935729697</v>
+        <v>1483.452817595311</v>
       </c>
       <c r="N37" t="n">
-        <v>1869.767890774506</v>
+        <v>1615.703969482475</v>
       </c>
       <c r="O37" t="n">
-        <v>2085.366207689827</v>
+        <v>1737.859313719487</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.89120767241</v>
+        <v>2189.891207672412</v>
       </c>
       <c r="Q37" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.45167457219</v>
       </c>
       <c r="R37" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="S37" t="n">
-        <v>2304.444758099758</v>
+        <v>2304.44475809976</v>
       </c>
       <c r="T37" t="n">
-        <v>2062.332917060791</v>
+        <v>2062.332917060793</v>
       </c>
       <c r="U37" t="n">
-        <v>1783.948013403887</v>
+        <v>1783.948013403889</v>
       </c>
       <c r="V37" t="n">
-        <v>1496.992505274317</v>
+        <v>1496.992505274319</v>
       </c>
       <c r="W37" t="n">
-        <v>1224.966100860609</v>
+        <v>1496.992505274319</v>
       </c>
       <c r="X37" t="n">
-        <v>979.5743461940215</v>
+        <v>1251.600750607732</v>
       </c>
       <c r="Y37" t="n">
-        <v>752.1546755081297</v>
+        <v>1024.18107992184</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>882.1731811371019</v>
+        <v>1145.264004567138</v>
       </c>
       <c r="C38" t="n">
-        <v>882.1731811371019</v>
+        <v>1145.264004567138</v>
       </c>
       <c r="D38" t="n">
-        <v>882.1731811371019</v>
+        <v>1145.264004567138</v>
       </c>
       <c r="E38" t="n">
-        <v>448.3984362953971</v>
+        <v>1145.264004567138</v>
       </c>
       <c r="F38" t="n">
-        <v>448.3984362953971</v>
+        <v>717.3965749763458</v>
       </c>
       <c r="G38" t="n">
-        <v>48.96638213099691</v>
+        <v>317.9645208119457</v>
       </c>
       <c r="H38" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I38" t="n">
-        <v>122.8353788882622</v>
+        <v>122.8353788882624</v>
       </c>
       <c r="J38" t="n">
-        <v>286.3580891786132</v>
+        <v>286.3580891786136</v>
       </c>
       <c r="K38" t="n">
-        <v>531.436243014119</v>
+        <v>531.4362430141193</v>
       </c>
       <c r="L38" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398453</v>
       </c>
       <c r="M38" t="n">
         <v>1173.781693844502</v>
       </c>
       <c r="N38" t="n">
-        <v>1517.560141290067</v>
+        <v>1517.560141290068</v>
       </c>
       <c r="O38" t="n">
-        <v>1842.180380803855</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P38" t="n">
-        <v>2119.236244874199</v>
+        <v>2119.2362448742</v>
       </c>
       <c r="Q38" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516459</v>
       </c>
       <c r="R38" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="S38" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="T38" t="n">
-        <v>2236.857069169884</v>
+        <v>2321.022532922625</v>
       </c>
       <c r="U38" t="n">
-        <v>1977.792028663888</v>
+        <v>2321.022532922625</v>
       </c>
       <c r="V38" t="n">
-        <v>1615.175078597714</v>
+        <v>1958.405582856451</v>
       </c>
       <c r="W38" t="n">
-        <v>1308.47275162201</v>
+        <v>1553.550128267485</v>
       </c>
       <c r="X38" t="n">
-        <v>1308.47275162201</v>
+        <v>1553.550128267485</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.47275162201</v>
+        <v>1145.264004567138</v>
       </c>
     </row>
     <row r="39">
@@ -7232,40 +7232,40 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C39" t="n">
-        <v>437.4718677682566</v>
+        <v>437.4718677682567</v>
       </c>
       <c r="D39" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E39" t="n">
-        <v>248.2611642417636</v>
+        <v>248.2611642417637</v>
       </c>
       <c r="F39" t="n">
-        <v>164.8773258579252</v>
+        <v>164.8773258579253</v>
       </c>
       <c r="G39" t="n">
-        <v>80.54401965804902</v>
+        <v>80.54401965804904</v>
       </c>
       <c r="H39" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I39" t="n">
-        <v>84.45847150237341</v>
+        <v>84.45847150237346</v>
       </c>
       <c r="J39" t="n">
-        <v>181.8514775085927</v>
+        <v>119.8578922240942</v>
       </c>
       <c r="K39" t="n">
-        <v>348.3116373029836</v>
+        <v>286.3180520184852</v>
       </c>
       <c r="L39" t="n">
-        <v>572.1378646061676</v>
+        <v>510.1442793216692</v>
       </c>
       <c r="M39" t="n">
-        <v>833.332514667877</v>
+        <v>771.338929383379</v>
       </c>
       <c r="N39" t="n">
-        <v>1101.440209907782</v>
+        <v>1039.446624623284</v>
       </c>
       <c r="O39" t="n">
         <v>1284.712786677942</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>561.3094327169807</v>
+        <v>704.2104052392308</v>
       </c>
       <c r="C40" t="n">
-        <v>561.3094327169807</v>
+        <v>531.6486937224557</v>
       </c>
       <c r="D40" t="n">
-        <v>395.4314399185034</v>
+        <v>365.7707009239784</v>
       </c>
       <c r="E40" t="n">
-        <v>225.6734361692407</v>
+        <v>196.0126971747157</v>
       </c>
       <c r="F40" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="G40" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="H40" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I40" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="J40" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284527</v>
       </c>
       <c r="K40" t="n">
-        <v>571.8138742903014</v>
+        <v>210.4757345544761</v>
       </c>
       <c r="L40" t="n">
-        <v>1118.511567973113</v>
+        <v>757.1734282372876</v>
       </c>
       <c r="M40" t="n">
-        <v>1253.983950316745</v>
+        <v>1352.129677761833</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.235102203909</v>
+        <v>1484.380829648997</v>
       </c>
       <c r="O40" t="n">
-        <v>1906.052088583818</v>
+        <v>1906.052088583819</v>
       </c>
       <c r="P40" t="n">
-        <v>2358.083982536742</v>
+        <v>2358.083982536744</v>
       </c>
       <c r="Q40" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.45167457219</v>
       </c>
       <c r="R40" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="S40" t="n">
-        <v>2304.444758099758</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="T40" t="n">
-        <v>2062.332917060791</v>
+        <v>2206.20726551088</v>
       </c>
       <c r="U40" t="n">
-        <v>1783.948013403887</v>
+        <v>1927.822361853975</v>
       </c>
       <c r="V40" t="n">
-        <v>1496.992505274317</v>
+        <v>1640.866853724406</v>
       </c>
       <c r="W40" t="n">
-        <v>1224.966100860609</v>
+        <v>1368.840449310697</v>
       </c>
       <c r="X40" t="n">
-        <v>979.5743461940215</v>
+        <v>1123.44869464411</v>
       </c>
       <c r="Y40" t="n">
-        <v>752.1546755081297</v>
+        <v>896.029023958218</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1350.886069363921</v>
+        <v>1356.793384614834</v>
       </c>
       <c r="C41" t="n">
-        <v>912.7435965473446</v>
+        <v>918.6509117982573</v>
       </c>
       <c r="D41" t="n">
-        <v>476.8338117217892</v>
+        <v>482.7411269727017</v>
       </c>
       <c r="E41" t="n">
-        <v>476.8338117217892</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="F41" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="G41" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="H41" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="I41" t="n">
-        <v>122.8353788882626</v>
+        <v>122.8353788882629</v>
       </c>
       <c r="J41" t="n">
-        <v>286.3580891786136</v>
+        <v>286.3580891786141</v>
       </c>
       <c r="K41" t="n">
-        <v>531.4362430141192</v>
+        <v>531.4362430141198</v>
       </c>
       <c r="L41" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398457</v>
       </c>
       <c r="M41" t="n">
-        <v>1173.781693844502</v>
+        <v>1173.781693844503</v>
       </c>
       <c r="N41" t="n">
-        <v>1517.560141290067</v>
+        <v>1517.560141290068</v>
       </c>
       <c r="O41" t="n">
-        <v>1842.180380803855</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P41" t="n">
-        <v>2119.236244874199</v>
+        <v>2119.236244874201</v>
       </c>
       <c r="Q41" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516459</v>
       </c>
       <c r="R41" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="S41" t="n">
-        <v>2409.462380959787</v>
+        <v>2409.462380959788</v>
       </c>
       <c r="T41" t="n">
-        <v>2198.000343579825</v>
+        <v>2198.000343579827</v>
       </c>
       <c r="U41" t="n">
-        <v>2198.000343579825</v>
+        <v>1938.935303073831</v>
       </c>
       <c r="V41" t="n">
-        <v>1835.383393513652</v>
+        <v>1775.935848035523</v>
       </c>
       <c r="W41" t="n">
-        <v>1835.383393513652</v>
+        <v>1775.935848035523</v>
       </c>
       <c r="X41" t="n">
-        <v>1835.383393513652</v>
+        <v>1356.793384614834</v>
       </c>
       <c r="Y41" t="n">
-        <v>1777.185639848829</v>
+        <v>1356.793384614834</v>
       </c>
     </row>
     <row r="42">
@@ -7469,37 +7469,37 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C42" t="n">
-        <v>437.4718677682566</v>
+        <v>437.4718677682567</v>
       </c>
       <c r="D42" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E42" t="n">
-        <v>248.2611642417636</v>
+        <v>248.2611642417637</v>
       </c>
       <c r="F42" t="n">
-        <v>164.8773258579252</v>
+        <v>164.8773258579253</v>
       </c>
       <c r="G42" t="n">
-        <v>80.54401965804902</v>
+        <v>80.54401965804905</v>
       </c>
       <c r="H42" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="I42" t="n">
-        <v>48.96638213099691</v>
+        <v>84.45847150237347</v>
       </c>
       <c r="J42" t="n">
-        <v>119.8578922240949</v>
+        <v>119.8578922240942</v>
       </c>
       <c r="K42" t="n">
-        <v>286.3180520184858</v>
+        <v>286.3180520184852</v>
       </c>
       <c r="L42" t="n">
-        <v>510.1442793216697</v>
+        <v>510.1442793216692</v>
       </c>
       <c r="M42" t="n">
-        <v>771.3389293833792</v>
+        <v>771.338929383379</v>
       </c>
       <c r="N42" t="n">
         <v>1039.446624623284</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>847.2915649187121</v>
+        <v>704.2104052392312</v>
       </c>
       <c r="C43" t="n">
-        <v>674.729853401937</v>
+        <v>531.6486937224562</v>
       </c>
       <c r="D43" t="n">
-        <v>674.729853401937</v>
+        <v>395.4314399185035</v>
       </c>
       <c r="E43" t="n">
-        <v>522.4452798014552</v>
+        <v>225.6734361692407</v>
       </c>
       <c r="F43" t="n">
-        <v>345.7382257632114</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="G43" t="n">
-        <v>181.0287307721954</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="H43" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="I43" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="J43" t="n">
-        <v>110.0676242284526</v>
+        <v>110.0676242284527</v>
       </c>
       <c r="K43" t="n">
-        <v>485.2341891256115</v>
+        <v>210.4757345544761</v>
       </c>
       <c r="L43" t="n">
-        <v>613.7220010404619</v>
+        <v>654.245157732585</v>
       </c>
       <c r="M43" t="n">
-        <v>1208.678250565007</v>
+        <v>789.7175400762173</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.188205609815</v>
+        <v>1364.227495121026</v>
       </c>
       <c r="O43" t="n">
-        <v>1905.343549846827</v>
+        <v>1906.052088583819</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.89120767241</v>
+        <v>2358.083982536744</v>
       </c>
       <c r="Q43" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.45167457219</v>
       </c>
       <c r="R43" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="S43" t="n">
-        <v>2304.444758099758</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="T43" t="n">
-        <v>2062.332917060791</v>
+        <v>2206.20726551088</v>
       </c>
       <c r="U43" t="n">
-        <v>1783.948013403887</v>
+        <v>1927.822361853976</v>
       </c>
       <c r="V43" t="n">
-        <v>1783.948013403887</v>
+        <v>1640.866853724406</v>
       </c>
       <c r="W43" t="n">
-        <v>1511.921608990179</v>
+        <v>1368.840449310698</v>
       </c>
       <c r="X43" t="n">
-        <v>1266.529854323591</v>
+        <v>1123.44869464411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1039.110183637699</v>
+        <v>896.0290239582184</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>789.7354943549352</v>
+        <v>1155.734223353845</v>
       </c>
       <c r="C44" t="n">
-        <v>789.7354943549352</v>
+        <v>717.5917505372681</v>
       </c>
       <c r="D44" t="n">
-        <v>448.3984362953971</v>
+        <v>717.5917505372681</v>
       </c>
       <c r="E44" t="n">
-        <v>448.3984362953971</v>
+        <v>283.8170056955633</v>
       </c>
       <c r="F44" t="n">
-        <v>448.3984362953971</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="G44" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="H44" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="I44" t="n">
         <v>122.8353788882626</v>
       </c>
       <c r="J44" t="n">
-        <v>286.3580891786135</v>
+        <v>286.358089178614</v>
       </c>
       <c r="K44" t="n">
-        <v>531.4362430141191</v>
+        <v>531.4362430141197</v>
       </c>
       <c r="L44" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398455</v>
       </c>
       <c r="M44" t="n">
-        <v>1173.781693844502</v>
+        <v>1173.781693844503</v>
       </c>
       <c r="N44" t="n">
-        <v>1517.560141290067</v>
+        <v>1517.560141290068</v>
       </c>
       <c r="O44" t="n">
-        <v>1842.180380803855</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P44" t="n">
-        <v>2119.236244874199</v>
+        <v>2119.236244874201</v>
       </c>
       <c r="Q44" t="n">
-        <v>2327.293660516458</v>
+        <v>2327.293660516459</v>
       </c>
       <c r="R44" t="n">
-        <v>2448.319106549846</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="S44" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959788</v>
       </c>
       <c r="T44" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959788</v>
       </c>
       <c r="U44" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959788</v>
       </c>
       <c r="V44" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959788</v>
       </c>
       <c r="W44" t="n">
-        <v>2043.463651960879</v>
+        <v>2409.462380959788</v>
       </c>
       <c r="X44" t="n">
-        <v>1624.32118854019</v>
+        <v>1990.319917539099</v>
       </c>
       <c r="Y44" t="n">
-        <v>1216.035064839843</v>
+        <v>1582.033793838752</v>
       </c>
     </row>
     <row r="45">
@@ -7706,46 +7706,46 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C45" t="n">
-        <v>437.4718677682566</v>
+        <v>437.4718677682567</v>
       </c>
       <c r="D45" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E45" t="n">
-        <v>248.2611642417636</v>
+        <v>248.2611642417637</v>
       </c>
       <c r="F45" t="n">
-        <v>164.8773258579252</v>
+        <v>164.8773258579253</v>
       </c>
       <c r="G45" t="n">
-        <v>80.54401965804902</v>
+        <v>80.54401965804905</v>
       </c>
       <c r="H45" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="I45" t="n">
-        <v>84.45847150237343</v>
+        <v>84.45847150237348</v>
       </c>
       <c r="J45" t="n">
-        <v>181.8514775085927</v>
+        <v>119.8578922240942</v>
       </c>
       <c r="K45" t="n">
-        <v>348.3116373029836</v>
+        <v>286.3180520184852</v>
       </c>
       <c r="L45" t="n">
-        <v>572.1378646061676</v>
+        <v>510.1442793216692</v>
       </c>
       <c r="M45" t="n">
-        <v>833.332514667877</v>
+        <v>771.338929383379</v>
       </c>
       <c r="N45" t="n">
-        <v>1101.440209907782</v>
+        <v>1039.446624623284</v>
       </c>
       <c r="O45" t="n">
-        <v>1346.70637196244</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P45" t="n">
-        <v>1543.554090058107</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q45" t="n">
         <v>1613.147991278647</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>787.7557274750352</v>
+        <v>864.764995067493</v>
       </c>
       <c r="C46" t="n">
-        <v>787.7557274750352</v>
+        <v>692.203283550718</v>
       </c>
       <c r="D46" t="n">
-        <v>621.8777346765579</v>
+        <v>692.203283550718</v>
       </c>
       <c r="E46" t="n">
-        <v>452.1197309272952</v>
+        <v>522.4452798014552</v>
       </c>
       <c r="F46" t="n">
-        <v>407.8806460405234</v>
+        <v>345.7382257632114</v>
       </c>
       <c r="G46" t="n">
-        <v>243.1711510495074</v>
+        <v>181.0287307721954</v>
       </c>
       <c r="H46" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="I46" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099695</v>
       </c>
       <c r="J46" t="n">
         <v>196.6473093931425</v>
       </c>
       <c r="K46" t="n">
-        <v>571.8138742903014</v>
+        <v>297.055419719166</v>
       </c>
       <c r="L46" t="n">
-        <v>1118.511567973113</v>
+        <v>542.2681845220131</v>
       </c>
       <c r="M46" t="n">
-        <v>1713.467817497658</v>
+        <v>1137.224434046559</v>
       </c>
       <c r="N46" t="n">
-        <v>1963.210863452816</v>
+        <v>1711.734389091367</v>
       </c>
       <c r="O46" t="n">
-        <v>2085.366207689827</v>
+        <v>2253.558982554161</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.891207672411</v>
+        <v>2358.083982536744</v>
       </c>
       <c r="Q46" t="n">
-        <v>2430.451674572189</v>
+        <v>2430.45167457219</v>
       </c>
       <c r="R46" t="n">
-        <v>2448.319106549846</v>
+        <v>2448.319106549847</v>
       </c>
       <c r="S46" t="n">
-        <v>2304.444758099759</v>
+        <v>2363.481941711521</v>
       </c>
       <c r="T46" t="n">
-        <v>2062.332917060792</v>
+        <v>2121.370100672554</v>
       </c>
       <c r="U46" t="n">
-        <v>1783.948013403888</v>
+        <v>1842.98519701565</v>
       </c>
       <c r="V46" t="n">
-        <v>1496.992505274318</v>
+        <v>1556.02968888608</v>
       </c>
       <c r="W46" t="n">
-        <v>1224.96610086061</v>
+        <v>1284.003284472372</v>
       </c>
       <c r="X46" t="n">
-        <v>979.5743461940224</v>
+        <v>1284.003284472372</v>
       </c>
       <c r="Y46" t="n">
-        <v>979.5743461940224</v>
+        <v>1056.58361378648</v>
       </c>
     </row>
   </sheetData>
@@ -8853,16 +8853,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>141.4680432173443</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9093,16 +9093,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P16" t="n">
-        <v>70.05088382580971</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9330,16 +9330,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>70.05088382580971</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9567,13 +9567,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>453.2517688993032</v>
+        <v>458.1582657371567</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>419.0018357134404</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>318.4662740032913</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>118.6786808767608</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>205.3582202552396</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645587</v>
@@ -10050,10 +10050,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>35.46652847308451</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,25 +10269,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>231.7867346248136</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>77.15742282960173</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10512,10 +10512,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>190.0958402682955</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>231.7867346248136</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -10749,19 +10749,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>231.7867346248136</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>94.38684108920143</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821538</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>401.6784264069665</v>
+        <v>302.5413279775855</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11220,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>318.4662740032913</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>181.8410685282824</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>117.9039928161583</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>118.6786808767613</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>217.1939706653099</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -23266,7 +23266,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>47.35376066937363</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -23275,7 +23275,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>24.38369222430029</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>67.95109395691685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -23509,10 +23509,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>197.8763211197131</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>240.9282991765018</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>86.49606417164721</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>151.8804576099039</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>168.4366665219335</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>3.12436479656008</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.45130463390834</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>187.1254990571394</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>3.463866584739037</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24025,19 +24025,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>118.2308787143492</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>169.1588901203634</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>10.28444881508628</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -24211,10 +24211,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>130.5230643932181</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -24223,7 +24223,7 @@
         <v>395.4377336227562</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>38.46815833415825</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>21.63101407128886</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>24.36610793391503</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>61.52099607453884</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>112.0789513297681</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>319.4815803882366</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
@@ -24460,7 +24460,7 @@
         <v>395.4377336227562</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>117.884581954931</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.4743901009363</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>29.36413160457937</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>163.0624000411058</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I28" t="n">
-        <v>61.52099607453886</v>
+        <v>61.52099607453884</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>33.23532135538139</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>105.1956366228629</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>180.2377605050299</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H29" t="n">
         <v>266.3081572941393</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>38.46815833415827</v>
+        <v>38.46815833415824</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>159.9221531134098</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>119.3737115002498</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>61.52099607453884</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>239.6907226285777</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>222.1989559579777</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>427.7814794860818</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>395.4377336227562</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H34" t="n">
-        <v>45.79273476163486</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>61.52099607453884</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>142.4356049655858</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>29.36413160457965</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>266.3081572941393</v>
+        <v>205.7578307805828</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,16 +25210,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>139.3056247701256</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>32.0785085259939</v>
       </c>
       <c r="I37" t="n">
-        <v>17.12956707063718</v>
+        <v>61.52099607453884</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -25399,16 +25399,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>38.46815833415827</v>
+        <v>38.46815833415825</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>83.32380911521145</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>97.17159633712919</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9636421685597725</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>29.36413160457974</v>
       </c>
       <c r="G40" t="n">
         <v>163.0624000411058</v>
@@ -25569,7 +25569,7 @@
         <v>130.7417251547865</v>
       </c>
       <c r="I40" t="n">
-        <v>61.52099607453886</v>
+        <v>61.52099607453884</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>395.4377336227562</v>
@@ -25684,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>197.621320077587</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>346.5874863351685</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>29.36413160457937</v>
       </c>
       <c r="E43" t="n">
-        <v>17.29869584729309</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I43" t="n">
-        <v>61.52099607453886</v>
+        <v>61.52099607453884</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>93.62699949835724</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>191.0866379659637</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H44" t="n">
         <v>266.3081572941393</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.3474170061614</v>
@@ -25927,7 +25927,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>131.1432894599573</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>61.52099607453884</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>58.44681177564321</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>335986.6750297866</v>
+        <v>335986.6750297867</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>345877.8034811169</v>
+        <v>345877.8034811171</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>345877.803481117</v>
+        <v>345877.8034811172</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>345877.803481117</v>
+        <v>345877.8034811172</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>345877.8034811169</v>
+        <v>345877.8034811172</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>345877.8034811169</v>
+        <v>345877.8034811172</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>345877.8034811169</v>
+        <v>345877.8034811172</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>345877.8034811169</v>
+        <v>345877.8034811172</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>345877.803481117</v>
+        <v>345877.8034811171</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>392538.4746673436</v>
+        <v>392538.4746673437</v>
       </c>
       <c r="C2" t="n">
         <v>392538.4746673437</v>
@@ -26322,10 +26322,10 @@
         <v>402110.4899178063</v>
       </c>
       <c r="E2" t="n">
+        <v>235946.3569512259</v>
+      </c>
+      <c r="F2" t="n">
         <v>235946.356951226</v>
-      </c>
-      <c r="F2" t="n">
-        <v>235946.3569512259</v>
       </c>
       <c r="G2" t="n">
         <v>235946.3569512259</v>
@@ -26334,28 +26334,28 @@
         <v>235946.3569512259</v>
       </c>
       <c r="I2" t="n">
-        <v>242775.0810731975</v>
+        <v>242775.0810731976</v>
       </c>
       <c r="J2" t="n">
         <v>242775.0810731976</v>
       </c>
       <c r="K2" t="n">
-        <v>242775.0810731975</v>
+        <v>242775.0810731977</v>
       </c>
       <c r="L2" t="n">
-        <v>242775.0810731975</v>
+        <v>242775.0810731976</v>
       </c>
       <c r="M2" t="n">
-        <v>242775.0810731974</v>
+        <v>242775.0810731976</v>
       </c>
       <c r="N2" t="n">
-        <v>242775.0810731975</v>
+        <v>242775.0810731977</v>
       </c>
       <c r="O2" t="n">
-        <v>242775.0810731975</v>
+        <v>242775.0810731977</v>
       </c>
       <c r="P2" t="n">
-        <v>242775.0810731975</v>
+        <v>242775.0810731977</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18943.98047935651</v>
+        <v>18943.98047935692</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10456.45543630175</v>
+        <v>10456.45543630177</v>
       </c>
       <c r="M3" t="n">
         <v>136754.9043831154</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
         <v>294841.7084545743</v>
@@ -26438,28 +26438,28 @@
         <v>21859.30180364562</v>
       </c>
       <c r="I4" t="n">
-        <v>22658.91960019212</v>
+        <v>22658.91960019214</v>
       </c>
       <c r="J4" t="n">
-        <v>22658.91960019212</v>
+        <v>22658.91960019214</v>
       </c>
       <c r="K4" t="n">
-        <v>22658.91960019212</v>
+        <v>22658.91960019213</v>
       </c>
       <c r="L4" t="n">
-        <v>22658.91960019212</v>
+        <v>22658.91960019213</v>
       </c>
       <c r="M4" t="n">
-        <v>22658.91960019212</v>
+        <v>22658.91960019213</v>
       </c>
       <c r="N4" t="n">
         <v>22658.91960019212</v>
       </c>
       <c r="O4" t="n">
-        <v>22658.91960019212</v>
+        <v>22658.91960019214</v>
       </c>
       <c r="P4" t="n">
-        <v>22658.91960019212</v>
+        <v>22658.91960019213</v>
       </c>
     </row>
     <row r="5">
@@ -26490,28 +26490,28 @@
         <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>47767.76961397016</v>
+        <v>47767.76961397019</v>
       </c>
       <c r="J5" t="n">
-        <v>47767.76961397016</v>
+        <v>47767.76961397019</v>
       </c>
       <c r="K5" t="n">
-        <v>47767.76961397016</v>
+        <v>47767.76961397019</v>
       </c>
       <c r="L5" t="n">
-        <v>47767.76961397016</v>
+        <v>47767.76961397019</v>
       </c>
       <c r="M5" t="n">
-        <v>47767.76961397016</v>
+        <v>47767.76961397019</v>
       </c>
       <c r="N5" t="n">
-        <v>47767.76961397016</v>
+        <v>47767.76961397018</v>
       </c>
       <c r="O5" t="n">
-        <v>47767.76961397016</v>
+        <v>47767.76961397019</v>
       </c>
       <c r="P5" t="n">
-        <v>47767.76961397016</v>
+        <v>47767.76961397019</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60180.15835551079</v>
+        <v>60148.25163800923</v>
       </c>
       <c r="C6" t="n">
-        <v>60180.15835551091</v>
+        <v>60148.25163800929</v>
       </c>
       <c r="D6" t="n">
-        <v>29531.31710826608</v>
+        <v>29531.31710826602</v>
       </c>
       <c r="E6" t="n">
-        <v>-344449.5356180392</v>
+        <v>-345003.4160612612</v>
       </c>
       <c r="F6" t="n">
-        <v>168035.9739379425</v>
+        <v>167482.0934947206</v>
       </c>
       <c r="G6" t="n">
-        <v>168035.9739379425</v>
+        <v>167482.0934947206</v>
       </c>
       <c r="H6" t="n">
-        <v>168035.9739379425</v>
+        <v>167482.0934947205</v>
       </c>
       <c r="I6" t="n">
-        <v>153404.4113796787</v>
+        <v>152873.2933501963</v>
       </c>
       <c r="J6" t="n">
-        <v>172348.3918590353</v>
+        <v>171817.2738295532</v>
       </c>
       <c r="K6" t="n">
-        <v>172348.3918590353</v>
+        <v>171817.2738295533</v>
       </c>
       <c r="L6" t="n">
-        <v>161891.9364227335</v>
+        <v>161360.8183932515</v>
       </c>
       <c r="M6" t="n">
-        <v>35593.48747591977</v>
+        <v>35062.3694464378</v>
       </c>
       <c r="N6" t="n">
-        <v>172348.3918590352</v>
+        <v>171817.2738295533</v>
       </c>
       <c r="O6" t="n">
-        <v>172348.3918590353</v>
+        <v>171817.2738295533</v>
       </c>
       <c r="P6" t="n">
-        <v>172348.3918590352</v>
+        <v>171817.2738295533</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>484.0972107528674</v>
+        <v>484.0972107528677</v>
       </c>
       <c r="J3" t="n">
-        <v>484.0972107528674</v>
+        <v>484.0972107528677</v>
       </c>
       <c r="K3" t="n">
-        <v>484.0972107528675</v>
+        <v>484.0972107528677</v>
       </c>
       <c r="L3" t="n">
-        <v>484.0972107528674</v>
+        <v>484.0972107528677</v>
       </c>
       <c r="M3" t="n">
-        <v>484.0972107528674</v>
+        <v>484.0972107528677</v>
       </c>
       <c r="N3" t="n">
-        <v>484.0972107528674</v>
+        <v>484.0972107528677</v>
       </c>
       <c r="O3" t="n">
-        <v>484.0972107528674</v>
+        <v>484.0972107528677</v>
       </c>
       <c r="P3" t="n">
-        <v>484.0972107528675</v>
+        <v>484.0972107528677</v>
       </c>
     </row>
     <row r="4">
@@ -26807,31 +26807,31 @@
         <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
-        <v>612.0797766374614</v>
+        <v>612.0797766374618</v>
       </c>
       <c r="J4" t="n">
-        <v>612.0797766374615</v>
+        <v>612.0797766374618</v>
       </c>
       <c r="K4" t="n">
-        <v>612.0797766374615</v>
+        <v>612.0797766374618</v>
       </c>
       <c r="L4" t="n">
-        <v>612.0797766374614</v>
+        <v>612.0797766374618</v>
       </c>
       <c r="M4" t="n">
-        <v>612.0797766374614</v>
+        <v>612.0797766374618</v>
       </c>
       <c r="N4" t="n">
-        <v>612.0797766374614</v>
+        <v>612.0797766374617</v>
       </c>
       <c r="O4" t="n">
-        <v>612.0797766374614</v>
+        <v>612.0797766374618</v>
       </c>
       <c r="P4" t="n">
-        <v>612.0797766374615</v>
+        <v>612.0797766374618</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17.39528265964623</v>
+        <v>17.39528265964657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>21.99788227552722</v>
+        <v>21.99788227552779</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27041,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752744</v>
       </c>
       <c r="M4" t="n">
         <v>548.7668913144067</v>
@@ -27937,7 +27937,7 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>63.55865238349761</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
         <v>93.17921052631581</v>
@@ -27946,10 +27946,10 @@
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>84.46078876789484</v>
+        <v>53.20294845432343</v>
       </c>
       <c r="H9" t="n">
-        <v>40.6378963153706</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>61.51230405132225</v>
+        <v>20.19730100379491</v>
       </c>
       <c r="T9" t="n">
-        <v>87.27789097014248</v>
+        <v>128.5928940176698</v>
       </c>
       <c r="U9" t="n">
-        <v>133.2535436095709</v>
+        <v>174.5685466570983</v>
       </c>
       <c r="V9" t="n">
         <v>197.1263427586206</v>
@@ -28019,7 +28019,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>129.2207015560621</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>117.7799263568143</v>
+        <v>156.6196485125224</v>
       </c>
       <c r="T10" t="n">
         <v>243.1682919906331</v>
@@ -31837,7 +31837,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32326,7 +32326,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32569,19 +32569,19 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.946119440212531</v>
+        <v>1.946119440212532</v>
       </c>
       <c r="H23" t="n">
-        <v>19.93069571707658</v>
+        <v>19.9306957170766</v>
       </c>
       <c r="I23" t="n">
-        <v>75.02776971879366</v>
+        <v>75.02776971879371</v>
       </c>
       <c r="J23" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K23" t="n">
-        <v>247.5536907429349</v>
+        <v>247.5536907429351</v>
       </c>
       <c r="L23" t="n">
-        <v>307.1122435613392</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M23" t="n">
-        <v>341.7215451562188</v>
+        <v>341.721545156219</v>
       </c>
       <c r="N23" t="n">
-        <v>347.2509570157227</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O23" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321095</v>
       </c>
       <c r="P23" t="n">
-        <v>279.8544081518624</v>
+        <v>279.8544081518626</v>
       </c>
       <c r="Q23" t="n">
-        <v>210.1590056992511</v>
+        <v>210.1590056992512</v>
       </c>
       <c r="R23" t="n">
-        <v>122.2479252862505</v>
+        <v>122.2479252862506</v>
       </c>
       <c r="S23" t="n">
-        <v>44.34719674384309</v>
+        <v>44.34719674384311</v>
       </c>
       <c r="T23" t="n">
-        <v>8.519137849530358</v>
+        <v>8.519137849530363</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H24" t="n">
         <v>10.05643451016806</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>35.85059532462275</v>
       </c>
       <c r="J24" t="n">
-        <v>98.37677374365583</v>
+        <v>98.37677374365589</v>
       </c>
       <c r="K24" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L24" t="n">
-        <v>226.0870982860444</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M24" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N24" t="n">
-        <v>270.8158537776819</v>
+        <v>270.8158537776821</v>
       </c>
       <c r="O24" t="n">
-        <v>247.7435980350075</v>
+        <v>247.7435980350077</v>
       </c>
       <c r="P24" t="n">
-        <v>198.8360788845127</v>
+        <v>198.8360788845128</v>
       </c>
       <c r="Q24" t="n">
-        <v>132.9166530353911</v>
+        <v>70.29686991973608</v>
       </c>
       <c r="R24" t="n">
-        <v>37.88062461856816</v>
+        <v>64.64981240959997</v>
       </c>
       <c r="S24" t="n">
-        <v>19.34105365602257</v>
+        <v>19.34105365602258</v>
       </c>
       <c r="T24" t="n">
-        <v>4.197031478130991</v>
+        <v>4.197031478130993</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06850432227634919</v>
+        <v>0.06850432227634923</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,25 +32858,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8729621833248428</v>
+        <v>0.8729621833248432</v>
       </c>
       <c r="H25" t="n">
-        <v>7.761427411742699</v>
+        <v>7.761427411742703</v>
       </c>
       <c r="I25" t="n">
-        <v>26.25235365853255</v>
+        <v>26.25235365853257</v>
       </c>
       <c r="J25" t="n">
-        <v>61.71842636106638</v>
+        <v>61.71842636106641</v>
       </c>
       <c r="K25" t="n">
         <v>101.4223336626499</v>
       </c>
       <c r="L25" t="n">
-        <v>129.7856686008589</v>
+        <v>129.785668600859</v>
       </c>
       <c r="M25" t="n">
-        <v>136.8407902460933</v>
+        <v>136.8407902460934</v>
       </c>
       <c r="N25" t="n">
         <v>133.5870221082463</v>
@@ -32888,19 +32888,19 @@
         <v>105.5808080632155</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.09867882368297</v>
+        <v>73.09867882368302</v>
       </c>
       <c r="R25" t="n">
-        <v>39.25155417022428</v>
+        <v>39.25155417022431</v>
       </c>
       <c r="S25" t="n">
-        <v>15.21335004939748</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T25" t="n">
-        <v>3.7299293287516</v>
+        <v>3.729929328751602</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04761611909044602</v>
+        <v>0.04761611909044605</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.946119440212531</v>
+        <v>1.946119440212532</v>
       </c>
       <c r="H26" t="n">
-        <v>19.93069571707658</v>
+        <v>19.9306957170766</v>
       </c>
       <c r="I26" t="n">
-        <v>75.02776971879366</v>
+        <v>75.02776971879371</v>
       </c>
       <c r="J26" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K26" t="n">
-        <v>247.5536907429349</v>
+        <v>247.5536907429351</v>
       </c>
       <c r="L26" t="n">
-        <v>307.1122435613392</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M26" t="n">
-        <v>341.7215451562188</v>
+        <v>341.721545156219</v>
       </c>
       <c r="N26" t="n">
-        <v>347.2509570157227</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O26" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321095</v>
       </c>
       <c r="P26" t="n">
-        <v>279.8544081518624</v>
+        <v>279.8544081518626</v>
       </c>
       <c r="Q26" t="n">
-        <v>210.1590056992511</v>
+        <v>210.1590056992512</v>
       </c>
       <c r="R26" t="n">
-        <v>122.2479252862505</v>
+        <v>122.2479252862506</v>
       </c>
       <c r="S26" t="n">
-        <v>44.34719674384309</v>
+        <v>44.34719674384311</v>
       </c>
       <c r="T26" t="n">
-        <v>8.519137849530358</v>
+        <v>8.519137849530363</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H27" t="n">
         <v>10.05643451016806</v>
       </c>
       <c r="I27" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462275</v>
       </c>
       <c r="J27" t="n">
-        <v>98.37677374365583</v>
+        <v>98.37677374365589</v>
       </c>
       <c r="K27" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L27" t="n">
-        <v>226.0870982860444</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M27" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N27" t="n">
-        <v>270.8158537776819</v>
+        <v>208.1960706620271</v>
       </c>
       <c r="O27" t="n">
-        <v>247.7435980350075</v>
+        <v>247.7435980350077</v>
       </c>
       <c r="P27" t="n">
-        <v>198.8360788845127</v>
+        <v>198.8360788845128</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.29686991973676</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R27" t="n">
-        <v>64.64981240959995</v>
+        <v>64.64981240959997</v>
       </c>
       <c r="S27" t="n">
-        <v>19.34105365602257</v>
+        <v>19.34105365602258</v>
       </c>
       <c r="T27" t="n">
-        <v>4.197031478130991</v>
+        <v>4.197031478130993</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06850432227634919</v>
+        <v>0.06850432227634923</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8729621833248428</v>
+        <v>0.8729621833248432</v>
       </c>
       <c r="H28" t="n">
-        <v>7.761427411742699</v>
+        <v>7.761427411742703</v>
       </c>
       <c r="I28" t="n">
-        <v>26.25235365853255</v>
+        <v>26.25235365853257</v>
       </c>
       <c r="J28" t="n">
-        <v>61.71842636106638</v>
+        <v>61.71842636106641</v>
       </c>
       <c r="K28" t="n">
         <v>101.4223336626499</v>
       </c>
       <c r="L28" t="n">
-        <v>129.7856686008589</v>
+        <v>129.785668600859</v>
       </c>
       <c r="M28" t="n">
-        <v>136.8407902460933</v>
+        <v>136.8407902460934</v>
       </c>
       <c r="N28" t="n">
         <v>133.5870221082463</v>
@@ -33125,19 +33125,19 @@
         <v>105.5808080632155</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.09867882368297</v>
+        <v>73.09867882368302</v>
       </c>
       <c r="R28" t="n">
-        <v>39.25155417022428</v>
+        <v>39.25155417022431</v>
       </c>
       <c r="S28" t="n">
-        <v>15.21335004939748</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T28" t="n">
-        <v>3.7299293287516</v>
+        <v>3.729929328751602</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04761611909044602</v>
+        <v>0.04761611909044605</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.946119440212531</v>
+        <v>1.946119440212532</v>
       </c>
       <c r="H29" t="n">
-        <v>19.93069571707659</v>
+        <v>19.9306957170766</v>
       </c>
       <c r="I29" t="n">
-        <v>75.02776971879368</v>
+        <v>75.02776971879372</v>
       </c>
       <c r="J29" t="n">
         <v>165.1744548387385</v>
       </c>
       <c r="K29" t="n">
-        <v>247.5536907429349</v>
+        <v>247.5536907429351</v>
       </c>
       <c r="L29" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M29" t="n">
-        <v>341.7215451562188</v>
+        <v>341.721545156219</v>
       </c>
       <c r="N29" t="n">
-        <v>347.2509570157227</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O29" t="n">
-        <v>327.8992318321094</v>
+        <v>327.8992318321095</v>
       </c>
       <c r="P29" t="n">
-        <v>279.8544081518625</v>
+        <v>279.8544081518626</v>
       </c>
       <c r="Q29" t="n">
-        <v>210.1590056992511</v>
+        <v>210.1590056992512</v>
       </c>
       <c r="R29" t="n">
-        <v>122.2479252862505</v>
+        <v>122.2479252862506</v>
       </c>
       <c r="S29" t="n">
-        <v>44.34719674384309</v>
+        <v>44.34719674384312</v>
       </c>
       <c r="T29" t="n">
-        <v>8.51913784953036</v>
+        <v>8.519137849530363</v>
       </c>
       <c r="U29" t="n">
         <v>0.1556895552170025</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H30" t="n">
-        <v>10.05643451016806</v>
+        <v>10.05643451016807</v>
       </c>
       <c r="I30" t="n">
-        <v>35.85059532462274</v>
+        <v>35.85059532462276</v>
       </c>
       <c r="J30" t="n">
-        <v>98.37677374365585</v>
+        <v>98.3767737436559</v>
       </c>
       <c r="K30" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L30" t="n">
-        <v>226.0870982860444</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M30" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603129</v>
       </c>
       <c r="N30" t="n">
-        <v>270.815853777682</v>
+        <v>208.196070662027</v>
       </c>
       <c r="O30" t="n">
-        <v>185.1238149193532</v>
+        <v>247.7435980350077</v>
       </c>
       <c r="P30" t="n">
-        <v>198.8360788845127</v>
+        <v>198.8360788845128</v>
       </c>
       <c r="Q30" t="n">
-        <v>132.9166530353911</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R30" t="n">
-        <v>64.64981240959995</v>
+        <v>64.64981240959999</v>
       </c>
       <c r="S30" t="n">
-        <v>19.34105365602257</v>
+        <v>19.34105365602258</v>
       </c>
       <c r="T30" t="n">
-        <v>4.197031478130991</v>
+        <v>4.197031478130993</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0685043222763492</v>
+        <v>0.06850432227634924</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8729621833248429</v>
+        <v>0.8729621833248433</v>
       </c>
       <c r="H31" t="n">
-        <v>7.7614274117427</v>
+        <v>7.761427411742704</v>
       </c>
       <c r="I31" t="n">
-        <v>26.25235365853256</v>
+        <v>26.25235365853257</v>
       </c>
       <c r="J31" t="n">
-        <v>61.71842636106638</v>
+        <v>61.71842636106642</v>
       </c>
       <c r="K31" t="n">
-        <v>101.4223336626499</v>
+        <v>101.42233366265</v>
       </c>
       <c r="L31" t="n">
-        <v>129.7856686008589</v>
+        <v>129.785668600859</v>
       </c>
       <c r="M31" t="n">
-        <v>136.8407902460933</v>
+        <v>136.8407902460934</v>
       </c>
       <c r="N31" t="n">
         <v>133.5870221082463</v>
@@ -33359,22 +33359,22 @@
         <v>123.3892366030424</v>
       </c>
       <c r="P31" t="n">
-        <v>105.5808080632155</v>
+        <v>105.5808080632156</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.09867882368299</v>
+        <v>73.09867882368303</v>
       </c>
       <c r="R31" t="n">
-        <v>39.25155417022429</v>
+        <v>39.25155417022431</v>
       </c>
       <c r="S31" t="n">
-        <v>15.21335004939748</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T31" t="n">
-        <v>3.7299293287516</v>
+        <v>3.729929328751603</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04761611909044603</v>
+        <v>0.04761611909044606</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.946119440212531</v>
+        <v>1.946119440212532</v>
       </c>
       <c r="H32" t="n">
-        <v>19.93069571707658</v>
+        <v>19.9306957170766</v>
       </c>
       <c r="I32" t="n">
-        <v>75.02776971879366</v>
+        <v>75.02776971879371</v>
       </c>
       <c r="J32" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K32" t="n">
-        <v>247.5536907429349</v>
+        <v>247.5536907429351</v>
       </c>
       <c r="L32" t="n">
-        <v>307.1122435613392</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M32" t="n">
-        <v>341.7215451562188</v>
+        <v>341.721545156219</v>
       </c>
       <c r="N32" t="n">
-        <v>347.2509570157227</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O32" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321095</v>
       </c>
       <c r="P32" t="n">
-        <v>279.8544081518624</v>
+        <v>279.8544081518626</v>
       </c>
       <c r="Q32" t="n">
-        <v>210.1590056992511</v>
+        <v>210.1590056992512</v>
       </c>
       <c r="R32" t="n">
-        <v>122.2479252862505</v>
+        <v>122.2479252862506</v>
       </c>
       <c r="S32" t="n">
-        <v>44.34719674384309</v>
+        <v>44.34719674384311</v>
       </c>
       <c r="T32" t="n">
-        <v>8.519137849530358</v>
+        <v>8.519137849530363</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H33" t="n">
         <v>10.05643451016806</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>35.85059532462275</v>
       </c>
       <c r="J33" t="n">
-        <v>98.37677374365583</v>
+        <v>98.37677374365589</v>
       </c>
       <c r="K33" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L33" t="n">
-        <v>226.0870982860444</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M33" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N33" t="n">
-        <v>270.8158537776819</v>
+        <v>270.8158537776821</v>
       </c>
       <c r="O33" t="n">
-        <v>220.9744102439759</v>
+        <v>247.7435980350077</v>
       </c>
       <c r="P33" t="n">
-        <v>198.8360788845127</v>
+        <v>198.8360788845128</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.9166530353911</v>
+        <v>70.29686991973608</v>
       </c>
       <c r="R33" t="n">
-        <v>64.64981240959995</v>
+        <v>64.64981240959997</v>
       </c>
       <c r="S33" t="n">
-        <v>19.34105365602257</v>
+        <v>19.34105365602258</v>
       </c>
       <c r="T33" t="n">
-        <v>4.197031478130991</v>
+        <v>4.197031478130993</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06850432227634919</v>
+        <v>0.06850432227634923</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8729621833248428</v>
+        <v>0.8729621833248432</v>
       </c>
       <c r="H34" t="n">
-        <v>7.761427411742699</v>
+        <v>7.761427411742703</v>
       </c>
       <c r="I34" t="n">
-        <v>26.25235365853255</v>
+        <v>26.25235365853257</v>
       </c>
       <c r="J34" t="n">
-        <v>61.71842636106638</v>
+        <v>61.71842636106641</v>
       </c>
       <c r="K34" t="n">
         <v>101.4223336626499</v>
       </c>
       <c r="L34" t="n">
-        <v>129.7856686008589</v>
+        <v>129.785668600859</v>
       </c>
       <c r="M34" t="n">
-        <v>136.8407902460933</v>
+        <v>136.8407902460934</v>
       </c>
       <c r="N34" t="n">
         <v>133.5870221082463</v>
@@ -33599,19 +33599,19 @@
         <v>105.5808080632155</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.09867882368297</v>
+        <v>73.09867882368302</v>
       </c>
       <c r="R34" t="n">
-        <v>39.25155417022428</v>
+        <v>39.25155417022431</v>
       </c>
       <c r="S34" t="n">
-        <v>15.21335004939748</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T34" t="n">
-        <v>3.7299293287516</v>
+        <v>3.729929328751602</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04761611909044602</v>
+        <v>0.04761611909044605</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.946119440212531</v>
+        <v>1.946119440212532</v>
       </c>
       <c r="H35" t="n">
-        <v>19.93069571707658</v>
+        <v>19.9306957170766</v>
       </c>
       <c r="I35" t="n">
-        <v>75.02776971879366</v>
+        <v>75.02776971879371</v>
       </c>
       <c r="J35" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K35" t="n">
-        <v>247.5536907429349</v>
+        <v>247.5536907429351</v>
       </c>
       <c r="L35" t="n">
-        <v>307.1122435613392</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M35" t="n">
-        <v>341.7215451562188</v>
+        <v>341.721545156219</v>
       </c>
       <c r="N35" t="n">
-        <v>347.2509570157227</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O35" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321095</v>
       </c>
       <c r="P35" t="n">
-        <v>279.8544081518624</v>
+        <v>279.8544081518626</v>
       </c>
       <c r="Q35" t="n">
-        <v>210.1590056992511</v>
+        <v>210.1590056992512</v>
       </c>
       <c r="R35" t="n">
-        <v>122.2479252862505</v>
+        <v>122.2479252862506</v>
       </c>
       <c r="S35" t="n">
-        <v>44.34719674384309</v>
+        <v>44.34719674384311</v>
       </c>
       <c r="T35" t="n">
-        <v>8.519137849530358</v>
+        <v>8.519137849530363</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H36" t="n">
         <v>10.05643451016806</v>
       </c>
       <c r="I36" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462275</v>
       </c>
       <c r="J36" t="n">
-        <v>35.75699062800163</v>
+        <v>98.37677374365589</v>
       </c>
       <c r="K36" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L36" t="n">
-        <v>226.0870982860444</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M36" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N36" t="n">
-        <v>270.8158537776819</v>
+        <v>270.8158537776821</v>
       </c>
       <c r="O36" t="n">
-        <v>247.7435980350075</v>
+        <v>185.1238149193525</v>
       </c>
       <c r="P36" t="n">
-        <v>198.8360788845127</v>
+        <v>198.8360788845128</v>
       </c>
       <c r="Q36" t="n">
-        <v>132.9166530353911</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R36" t="n">
-        <v>64.64981240959995</v>
+        <v>64.64981240959997</v>
       </c>
       <c r="S36" t="n">
-        <v>19.34105365602257</v>
+        <v>19.34105365602258</v>
       </c>
       <c r="T36" t="n">
-        <v>4.197031478130991</v>
+        <v>4.197031478130993</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06850432227634919</v>
+        <v>0.06850432227634923</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8729621833248428</v>
+        <v>0.8729621833248432</v>
       </c>
       <c r="H37" t="n">
-        <v>7.761427411742699</v>
+        <v>7.761427411742703</v>
       </c>
       <c r="I37" t="n">
-        <v>26.25235365853255</v>
+        <v>26.25235365853257</v>
       </c>
       <c r="J37" t="n">
-        <v>61.71842636106638</v>
+        <v>61.71842636106641</v>
       </c>
       <c r="K37" t="n">
         <v>101.4223336626499</v>
       </c>
       <c r="L37" t="n">
-        <v>129.7856686008589</v>
+        <v>129.785668600859</v>
       </c>
       <c r="M37" t="n">
-        <v>136.8407902460933</v>
+        <v>136.8407902460934</v>
       </c>
       <c r="N37" t="n">
         <v>133.5870221082463</v>
@@ -33836,19 +33836,19 @@
         <v>105.5808080632155</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.09867882368297</v>
+        <v>73.09867882368302</v>
       </c>
       <c r="R37" t="n">
-        <v>39.25155417022428</v>
+        <v>39.25155417022431</v>
       </c>
       <c r="S37" t="n">
-        <v>15.21335004939748</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T37" t="n">
-        <v>3.7299293287516</v>
+        <v>3.729929328751602</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04761611909044602</v>
+        <v>0.04761611909044605</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.946119440212531</v>
+        <v>1.946119440212532</v>
       </c>
       <c r="H38" t="n">
-        <v>19.93069571707658</v>
+        <v>19.9306957170766</v>
       </c>
       <c r="I38" t="n">
-        <v>75.02776971879366</v>
+        <v>75.02776971879371</v>
       </c>
       <c r="J38" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K38" t="n">
-        <v>247.5536907429349</v>
+        <v>247.5536907429351</v>
       </c>
       <c r="L38" t="n">
-        <v>307.1122435613392</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M38" t="n">
-        <v>341.7215451562188</v>
+        <v>341.721545156219</v>
       </c>
       <c r="N38" t="n">
-        <v>347.2509570157227</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O38" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321095</v>
       </c>
       <c r="P38" t="n">
-        <v>279.8544081518624</v>
+        <v>279.8544081518626</v>
       </c>
       <c r="Q38" t="n">
-        <v>210.1590056992511</v>
+        <v>210.1590056992512</v>
       </c>
       <c r="R38" t="n">
-        <v>122.2479252862505</v>
+        <v>122.2479252862506</v>
       </c>
       <c r="S38" t="n">
-        <v>44.34719674384309</v>
+        <v>44.34719674384311</v>
       </c>
       <c r="T38" t="n">
-        <v>8.519137849530358</v>
+        <v>8.519137849530363</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H39" t="n">
         <v>10.05643451016806</v>
       </c>
       <c r="I39" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462275</v>
       </c>
       <c r="J39" t="n">
-        <v>98.37677374365583</v>
+        <v>35.75699062800078</v>
       </c>
       <c r="K39" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L39" t="n">
-        <v>226.0870982860444</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M39" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N39" t="n">
-        <v>270.8158537776819</v>
+        <v>270.8158537776821</v>
       </c>
       <c r="O39" t="n">
-        <v>185.1238149193532</v>
+        <v>247.7435980350077</v>
       </c>
       <c r="P39" t="n">
-        <v>198.8360788845127</v>
+        <v>198.8360788845128</v>
       </c>
       <c r="Q39" t="n">
-        <v>132.9166530353911</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R39" t="n">
-        <v>64.64981240959995</v>
+        <v>64.64981240959997</v>
       </c>
       <c r="S39" t="n">
-        <v>19.34105365602257</v>
+        <v>19.34105365602258</v>
       </c>
       <c r="T39" t="n">
-        <v>4.197031478130991</v>
+        <v>4.197031478130993</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06850432227634919</v>
+        <v>0.06850432227634923</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8729621833248428</v>
+        <v>0.8729621833248432</v>
       </c>
       <c r="H40" t="n">
-        <v>7.761427411742699</v>
+        <v>7.761427411742703</v>
       </c>
       <c r="I40" t="n">
-        <v>26.25235365853255</v>
+        <v>26.25235365853257</v>
       </c>
       <c r="J40" t="n">
-        <v>61.71842636106638</v>
+        <v>61.71842636106641</v>
       </c>
       <c r="K40" t="n">
         <v>101.4223336626499</v>
       </c>
       <c r="L40" t="n">
-        <v>129.7856686008589</v>
+        <v>129.785668600859</v>
       </c>
       <c r="M40" t="n">
-        <v>136.8407902460933</v>
+        <v>136.8407902460934</v>
       </c>
       <c r="N40" t="n">
         <v>133.5870221082463</v>
@@ -34073,19 +34073,19 @@
         <v>105.5808080632155</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.09867882368297</v>
+        <v>73.09867882368302</v>
       </c>
       <c r="R40" t="n">
-        <v>39.25155417022428</v>
+        <v>39.25155417022431</v>
       </c>
       <c r="S40" t="n">
-        <v>15.21335004939748</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T40" t="n">
-        <v>3.7299293287516</v>
+        <v>3.729929328751602</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04761611909044602</v>
+        <v>0.04761611909044605</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.946119440212531</v>
+        <v>1.946119440212532</v>
       </c>
       <c r="H41" t="n">
-        <v>19.93069571707658</v>
+        <v>19.9306957170766</v>
       </c>
       <c r="I41" t="n">
-        <v>75.02776971879366</v>
+        <v>75.02776971879371</v>
       </c>
       <c r="J41" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K41" t="n">
-        <v>247.5536907429349</v>
+        <v>247.5536907429351</v>
       </c>
       <c r="L41" t="n">
-        <v>307.1122435613392</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M41" t="n">
-        <v>341.7215451562188</v>
+        <v>341.721545156219</v>
       </c>
       <c r="N41" t="n">
-        <v>347.2509570157227</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O41" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321095</v>
       </c>
       <c r="P41" t="n">
-        <v>279.8544081518624</v>
+        <v>279.8544081518626</v>
       </c>
       <c r="Q41" t="n">
-        <v>210.1590056992511</v>
+        <v>210.1590056992512</v>
       </c>
       <c r="R41" t="n">
-        <v>122.2479252862505</v>
+        <v>122.2479252862506</v>
       </c>
       <c r="S41" t="n">
-        <v>44.34719674384309</v>
+        <v>44.34719674384311</v>
       </c>
       <c r="T41" t="n">
-        <v>8.519137849530358</v>
+        <v>8.519137849530363</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H42" t="n">
         <v>10.05643451016806</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>35.85059532462275</v>
       </c>
       <c r="J42" t="n">
-        <v>71.60758595262423</v>
+        <v>35.75699062800076</v>
       </c>
       <c r="K42" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L42" t="n">
-        <v>226.0870982860444</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M42" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N42" t="n">
-        <v>270.8158537776819</v>
+        <v>270.8158537776821</v>
       </c>
       <c r="O42" t="n">
-        <v>247.7435980350075</v>
+        <v>247.7435980350077</v>
       </c>
       <c r="P42" t="n">
-        <v>198.8360788845127</v>
+        <v>198.8360788845128</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.9166530353911</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R42" t="n">
-        <v>64.64981240959995</v>
+        <v>64.64981240959997</v>
       </c>
       <c r="S42" t="n">
-        <v>19.34105365602257</v>
+        <v>19.34105365602258</v>
       </c>
       <c r="T42" t="n">
-        <v>4.197031478130991</v>
+        <v>4.197031478130993</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06850432227634919</v>
+        <v>0.06850432227634923</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8729621833248428</v>
+        <v>0.8729621833248432</v>
       </c>
       <c r="H43" t="n">
-        <v>7.761427411742699</v>
+        <v>7.761427411742703</v>
       </c>
       <c r="I43" t="n">
-        <v>26.25235365853255</v>
+        <v>26.25235365853257</v>
       </c>
       <c r="J43" t="n">
-        <v>61.71842636106638</v>
+        <v>61.71842636106641</v>
       </c>
       <c r="K43" t="n">
         <v>101.4223336626499</v>
       </c>
       <c r="L43" t="n">
-        <v>129.7856686008589</v>
+        <v>129.785668600859</v>
       </c>
       <c r="M43" t="n">
-        <v>136.8407902460933</v>
+        <v>136.8407902460934</v>
       </c>
       <c r="N43" t="n">
         <v>133.5870221082463</v>
@@ -34310,19 +34310,19 @@
         <v>105.5808080632155</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.09867882368297</v>
+        <v>73.09867882368302</v>
       </c>
       <c r="R43" t="n">
-        <v>39.25155417022428</v>
+        <v>39.25155417022431</v>
       </c>
       <c r="S43" t="n">
-        <v>15.21335004939748</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T43" t="n">
-        <v>3.7299293287516</v>
+        <v>3.729929328751602</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04761611909044602</v>
+        <v>0.04761611909044605</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.946119440212531</v>
+        <v>1.946119440212532</v>
       </c>
       <c r="H44" t="n">
-        <v>19.93069571707659</v>
+        <v>19.9306957170766</v>
       </c>
       <c r="I44" t="n">
-        <v>75.02776971879368</v>
+        <v>75.02776971879372</v>
       </c>
       <c r="J44" t="n">
         <v>165.1744548387385</v>
       </c>
       <c r="K44" t="n">
-        <v>247.5536907429349</v>
+        <v>247.5536907429351</v>
       </c>
       <c r="L44" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M44" t="n">
-        <v>341.7215451562188</v>
+        <v>341.721545156219</v>
       </c>
       <c r="N44" t="n">
-        <v>347.2509570157227</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O44" t="n">
-        <v>327.8992318321094</v>
+        <v>327.8992318321095</v>
       </c>
       <c r="P44" t="n">
-        <v>279.8544081518625</v>
+        <v>279.8544081518626</v>
       </c>
       <c r="Q44" t="n">
-        <v>210.1590056992511</v>
+        <v>210.1590056992512</v>
       </c>
       <c r="R44" t="n">
-        <v>122.2479252862505</v>
+        <v>122.2479252862506</v>
       </c>
       <c r="S44" t="n">
-        <v>44.34719674384309</v>
+        <v>44.34719674384312</v>
       </c>
       <c r="T44" t="n">
-        <v>8.51913784953036</v>
+        <v>8.519137849530363</v>
       </c>
       <c r="U44" t="n">
         <v>0.1556895552170025</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H45" t="n">
-        <v>10.05643451016806</v>
+        <v>10.05643451016807</v>
       </c>
       <c r="I45" t="n">
-        <v>35.85059532462274</v>
+        <v>35.85059532462276</v>
       </c>
       <c r="J45" t="n">
-        <v>98.37677374365585</v>
+        <v>35.75699062800069</v>
       </c>
       <c r="K45" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L45" t="n">
-        <v>226.0870982860444</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M45" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603129</v>
       </c>
       <c r="N45" t="n">
-        <v>270.815853777682</v>
+        <v>270.8158537776822</v>
       </c>
       <c r="O45" t="n">
-        <v>247.7435980350076</v>
+        <v>247.7435980350077</v>
       </c>
       <c r="P45" t="n">
-        <v>198.8360788845127</v>
+        <v>198.8360788845128</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.29686991973676</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R45" t="n">
-        <v>64.64981240959995</v>
+        <v>64.64981240959999</v>
       </c>
       <c r="S45" t="n">
-        <v>19.34105365602257</v>
+        <v>19.34105365602258</v>
       </c>
       <c r="T45" t="n">
-        <v>4.197031478130991</v>
+        <v>4.197031478130993</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0685043222763492</v>
+        <v>0.06850432227634924</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,25 +34517,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8729621833248429</v>
+        <v>0.8729621833248433</v>
       </c>
       <c r="H46" t="n">
-        <v>7.7614274117427</v>
+        <v>7.761427411742704</v>
       </c>
       <c r="I46" t="n">
-        <v>26.25235365853256</v>
+        <v>26.25235365853257</v>
       </c>
       <c r="J46" t="n">
-        <v>61.71842636106638</v>
+        <v>61.71842636106642</v>
       </c>
       <c r="K46" t="n">
-        <v>101.4223336626499</v>
+        <v>101.42233366265</v>
       </c>
       <c r="L46" t="n">
-        <v>129.7856686008589</v>
+        <v>129.785668600859</v>
       </c>
       <c r="M46" t="n">
-        <v>136.8407902460933</v>
+        <v>136.8407902460934</v>
       </c>
       <c r="N46" t="n">
         <v>133.5870221082463</v>
@@ -34544,22 +34544,22 @@
         <v>123.3892366030424</v>
       </c>
       <c r="P46" t="n">
-        <v>105.5808080632155</v>
+        <v>105.5808080632156</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.09867882368299</v>
+        <v>73.09867882368303</v>
       </c>
       <c r="R46" t="n">
-        <v>39.25155417022429</v>
+        <v>39.25155417022431</v>
       </c>
       <c r="S46" t="n">
-        <v>15.21335004939748</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T46" t="n">
-        <v>3.7299293287516</v>
+        <v>3.729929328751603</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04761611909044603</v>
+        <v>0.04761611909044606</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
@@ -35418,7 +35418,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35491,10 +35491,10 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
@@ -35573,16 +35573,16 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>266.5900650540088</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -35652,7 +35652,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35661,10 +35661,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -35813,16 +35813,16 @@
         <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P16" t="n">
-        <v>171.8378092578132</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
         <v>240.36368292423</v>
@@ -35883,10 +35883,10 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766673</v>
@@ -35898,10 +35898,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35971,10 +35971,10 @@
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -36050,16 +36050,16 @@
         <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>198.8376634256981</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
         <v>240.36368292423</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36138,7 +36138,7 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36211,7 +36211,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36284,16 +36284,16 @@
         <v>97.77787936116988</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
-        <v>585.1753975240804</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>547.7886153133289</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P22" t="n">
         <v>452.8039900485103</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>74.61514823966226</v>
+        <v>74.6151482396623</v>
       </c>
       <c r="J23" t="n">
-        <v>165.1744548387385</v>
+        <v>165.1744548387387</v>
       </c>
       <c r="K23" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L23" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613395</v>
       </c>
       <c r="M23" t="n">
-        <v>341.7215451562187</v>
+        <v>341.721545156219</v>
       </c>
       <c r="N23" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O23" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321095</v>
       </c>
       <c r="P23" t="n">
         <v>279.8544081518626</v>
       </c>
       <c r="Q23" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R23" t="n">
         <v>122.2479252862504</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>35.85059532462275</v>
       </c>
       <c r="J24" t="n">
-        <v>98.37677374365582</v>
+        <v>98.3767737436559</v>
       </c>
       <c r="K24" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L24" t="n">
-        <v>226.0870982860444</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M24" t="n">
         <v>263.8329798603128</v>
       </c>
       <c r="N24" t="n">
-        <v>270.8158537776819</v>
+        <v>270.8158537776822</v>
       </c>
       <c r="O24" t="n">
         <v>247.7435980350076</v>
@@ -36457,10 +36457,10 @@
         <v>198.8360788845127</v>
       </c>
       <c r="Q24" t="n">
-        <v>132.9166530353912</v>
+        <v>70.29686991973608</v>
       </c>
       <c r="R24" t="n">
-        <v>37.88062461856816</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>149.172653800147</v>
+        <v>61.71842636106641</v>
       </c>
       <c r="K25" t="n">
-        <v>378.9561261587465</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L25" t="n">
-        <v>552.2198926089004</v>
+        <v>129.785668600859</v>
       </c>
       <c r="M25" t="n">
-        <v>600.9659086106519</v>
+        <v>455.3070642493847</v>
       </c>
       <c r="N25" t="n">
-        <v>133.5870221082462</v>
+        <v>580.313085903847</v>
       </c>
       <c r="O25" t="n">
-        <v>242.0679174798031</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P25" t="n">
-        <v>105.5808080632155</v>
+        <v>456.5978726797225</v>
       </c>
       <c r="Q25" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R25" t="n">
-        <v>18.04791108854245</v>
+        <v>18.04791108854247</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>74.61514823966226</v>
+        <v>74.6151482396623</v>
       </c>
       <c r="J26" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K26" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L26" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M26" t="n">
-        <v>341.7215451562188</v>
+        <v>341.721545156219</v>
       </c>
       <c r="N26" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O26" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321095</v>
       </c>
       <c r="P26" t="n">
         <v>279.8544081518626</v>
       </c>
       <c r="Q26" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R26" t="n">
         <v>122.2479252862504</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>35.85059532462274</v>
+        <v>35.85059532462275</v>
       </c>
       <c r="J27" t="n">
-        <v>98.37677374365583</v>
+        <v>98.3767737436559</v>
       </c>
       <c r="K27" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L27" t="n">
-        <v>226.0870982860444</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M27" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N27" t="n">
-        <v>270.8158537776819</v>
+        <v>208.1960706620271</v>
       </c>
       <c r="O27" t="n">
         <v>247.7435980350076</v>
@@ -36694,7 +36694,7 @@
         <v>198.8360788845127</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.29686991973676</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R27" t="n">
         <v>64.64981240959992</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>61.71842636106638</v>
+        <v>61.71842636106641</v>
       </c>
       <c r="K28" t="n">
         <v>101.4223336626499</v>
       </c>
       <c r="L28" t="n">
-        <v>129.7856686008589</v>
+        <v>335.1438888560987</v>
       </c>
       <c r="M28" t="n">
-        <v>600.9659086106519</v>
+        <v>600.965908610652</v>
       </c>
       <c r="N28" t="n">
         <v>580.313085903847</v>
       </c>
       <c r="O28" t="n">
-        <v>547.297569154337</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P28" t="n">
-        <v>141.0473365363</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q28" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R28" t="n">
-        <v>18.04791108854245</v>
+        <v>18.04791108854247</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,25 +36828,25 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>74.61514823966228</v>
+        <v>74.61514823966232</v>
       </c>
       <c r="J29" t="n">
-        <v>165.1744548387383</v>
+        <v>165.1744548387387</v>
       </c>
       <c r="K29" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L29" t="n">
-        <v>307.1122435613394</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M29" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562192</v>
       </c>
       <c r="N29" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O29" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321095</v>
       </c>
       <c r="P29" t="n">
         <v>279.8544081518626</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>35.85059532462274</v>
+        <v>35.85059532462277</v>
       </c>
       <c r="J30" t="n">
-        <v>98.37677374365583</v>
+        <v>98.37677374365589</v>
       </c>
       <c r="K30" t="n">
         <v>168.1415755498899</v>
       </c>
       <c r="L30" t="n">
-        <v>226.0870982860444</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M30" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603129</v>
       </c>
       <c r="N30" t="n">
-        <v>270.8158537776819</v>
+        <v>208.196070662027</v>
       </c>
       <c r="O30" t="n">
-        <v>185.1238149193532</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P30" t="n">
         <v>198.8360788845127</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>61.71842636106638</v>
+        <v>149.1726538001471</v>
       </c>
       <c r="K31" t="n">
-        <v>101.4223336626499</v>
+        <v>378.9561261587465</v>
       </c>
       <c r="L31" t="n">
-        <v>552.2198926089004</v>
+        <v>552.2198926089005</v>
       </c>
       <c r="M31" t="n">
-        <v>136.8407902460933</v>
+        <v>368.6275248709069</v>
       </c>
       <c r="N31" t="n">
-        <v>580.3130859038469</v>
+        <v>133.5870221082464</v>
       </c>
       <c r="O31" t="n">
-        <v>547.2975691543368</v>
+        <v>123.3892366030425</v>
       </c>
       <c r="P31" t="n">
-        <v>182.7382308928175</v>
+        <v>456.5978726797225</v>
       </c>
       <c r="Q31" t="n">
         <v>242.9903706058367</v>
       </c>
       <c r="R31" t="n">
-        <v>18.04791108854245</v>
+        <v>18.04791108854247</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>74.61514823966226</v>
+        <v>74.6151482396623</v>
       </c>
       <c r="J32" t="n">
-        <v>165.1744548387385</v>
+        <v>165.1744548387387</v>
       </c>
       <c r="K32" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L32" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613395</v>
       </c>
       <c r="M32" t="n">
-        <v>341.7215451562187</v>
+        <v>341.721545156219</v>
       </c>
       <c r="N32" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O32" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321095</v>
       </c>
       <c r="P32" t="n">
         <v>279.8544081518626</v>
       </c>
       <c r="Q32" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R32" t="n">
         <v>122.2479252862504</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>35.85059532462275</v>
       </c>
       <c r="J33" t="n">
-        <v>98.37677374365582</v>
+        <v>98.3767737436559</v>
       </c>
       <c r="K33" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L33" t="n">
-        <v>226.0870982860444</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M33" t="n">
         <v>263.8329798603128</v>
       </c>
       <c r="N33" t="n">
-        <v>270.8158537776819</v>
+        <v>270.8158537776822</v>
       </c>
       <c r="O33" t="n">
-        <v>220.9744102439759</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P33" t="n">
         <v>198.8360788845127</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.9166530353912</v>
+        <v>70.29686991973608</v>
       </c>
       <c r="R33" t="n">
         <v>64.64981240959992</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>149.172653800147</v>
+        <v>149.1726538001471</v>
       </c>
       <c r="K34" t="n">
         <v>378.9561261587465</v>
       </c>
       <c r="L34" t="n">
-        <v>319.8815088691545</v>
+        <v>552.2198926089005</v>
       </c>
       <c r="M34" t="n">
-        <v>600.9659086106519</v>
+        <v>368.6275248709069</v>
       </c>
       <c r="N34" t="n">
-        <v>133.5870221082462</v>
+        <v>133.5870221082464</v>
       </c>
       <c r="O34" t="n">
-        <v>123.3892366030423</v>
+        <v>123.3892366030425</v>
       </c>
       <c r="P34" t="n">
-        <v>456.5978726797223</v>
+        <v>456.5978726797225</v>
       </c>
       <c r="Q34" t="n">
         <v>242.9903706058367</v>
       </c>
       <c r="R34" t="n">
-        <v>18.04791108854245</v>
+        <v>18.04791108854247</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>74.61514823966226</v>
+        <v>74.6151482396623</v>
       </c>
       <c r="J35" t="n">
-        <v>165.1744548387387</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K35" t="n">
-        <v>247.553690742935</v>
+        <v>247.5536907429351</v>
       </c>
       <c r="L35" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M35" t="n">
-        <v>341.7215451562188</v>
+        <v>341.721545156219</v>
       </c>
       <c r="N35" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O35" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321095</v>
       </c>
       <c r="P35" t="n">
         <v>279.8544081518626</v>
       </c>
       <c r="Q35" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R35" t="n">
         <v>122.2479252862504</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>35.85059532462276</v>
+        <v>35.85059532462275</v>
       </c>
       <c r="J36" t="n">
-        <v>35.75699062800163</v>
+        <v>98.3767737436559</v>
       </c>
       <c r="K36" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L36" t="n">
         <v>226.0870982860445</v>
       </c>
       <c r="M36" t="n">
-        <v>263.8329798603129</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N36" t="n">
-        <v>270.8158537776819</v>
+        <v>270.8158537776822</v>
       </c>
       <c r="O36" t="n">
-        <v>247.7435980350076</v>
+        <v>185.1238149193525</v>
       </c>
       <c r="P36" t="n">
-        <v>198.8360788845125</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q36" t="n">
-        <v>132.9166530353909</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R36" t="n">
-        <v>64.64981240960014</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>149.172653800147</v>
+        <v>149.1726538001471</v>
       </c>
       <c r="K37" t="n">
         <v>378.9561261587465</v>
       </c>
       <c r="L37" t="n">
-        <v>129.7856686008589</v>
+        <v>552.2198926089005</v>
       </c>
       <c r="M37" t="n">
-        <v>600.965908610652</v>
+        <v>368.6275248709069</v>
       </c>
       <c r="N37" t="n">
-        <v>580.313085903847</v>
+        <v>133.5870221082464</v>
       </c>
       <c r="O37" t="n">
-        <v>217.7760776922437</v>
+        <v>123.3892366030425</v>
       </c>
       <c r="P37" t="n">
-        <v>105.5808080632155</v>
+        <v>456.5978726797225</v>
       </c>
       <c r="Q37" t="n">
         <v>242.9903706058367</v>
       </c>
       <c r="R37" t="n">
-        <v>18.04791108854245</v>
+        <v>18.04791108854247</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>74.61514823966226</v>
+        <v>74.6151482396623</v>
       </c>
       <c r="J38" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387386</v>
       </c>
       <c r="K38" t="n">
-        <v>247.5536907429351</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L38" t="n">
         <v>307.1122435613395</v>
       </c>
       <c r="M38" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N38" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O38" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321095</v>
       </c>
       <c r="P38" t="n">
         <v>279.8544081518626</v>
       </c>
       <c r="Q38" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R38" t="n">
         <v>122.2479252862504</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462275</v>
       </c>
       <c r="J39" t="n">
-        <v>98.37677374365585</v>
+        <v>35.75699062800078</v>
       </c>
       <c r="K39" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L39" t="n">
-        <v>226.0870982860444</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M39" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603129</v>
       </c>
       <c r="N39" t="n">
-        <v>270.8158537776819</v>
+        <v>270.8158537776822</v>
       </c>
       <c r="O39" t="n">
-        <v>185.1238149193532</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P39" t="n">
         <v>198.8360788845127</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>149.172653800147</v>
+        <v>61.71842636106641</v>
       </c>
       <c r="K40" t="n">
-        <v>378.9561261587465</v>
+        <v>101.42233366265</v>
       </c>
       <c r="L40" t="n">
-        <v>552.2198926089004</v>
+        <v>552.2198926089005</v>
       </c>
       <c r="M40" t="n">
-        <v>136.8407902460933</v>
+        <v>600.965908610652</v>
       </c>
       <c r="N40" t="n">
-        <v>133.5870221082462</v>
+        <v>133.5870221082464</v>
       </c>
       <c r="O40" t="n">
-        <v>525.0676630100088</v>
+        <v>425.930564580628</v>
       </c>
       <c r="P40" t="n">
-        <v>456.5978726797223</v>
+        <v>456.5978726797225</v>
       </c>
       <c r="Q40" t="n">
         <v>73.0986788236828</v>
       </c>
       <c r="R40" t="n">
-        <v>18.04791108854245</v>
+        <v>18.04791108854247</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>74.61514823966226</v>
+        <v>74.6151482396623</v>
       </c>
       <c r="J41" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K41" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L41" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M41" t="n">
-        <v>341.7215451562188</v>
+        <v>341.721545156219</v>
       </c>
       <c r="N41" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O41" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321095</v>
       </c>
       <c r="P41" t="n">
         <v>279.8544081518626</v>
       </c>
       <c r="Q41" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R41" t="n">
         <v>122.2479252862504</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>35.85059532462275</v>
       </c>
       <c r="J42" t="n">
-        <v>71.60758595262423</v>
+        <v>35.75699062800076</v>
       </c>
       <c r="K42" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L42" t="n">
-        <v>226.0870982860444</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M42" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603129</v>
       </c>
       <c r="N42" t="n">
-        <v>270.8158537776819</v>
+        <v>270.8158537776822</v>
       </c>
       <c r="O42" t="n">
         <v>247.7435980350076</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>61.71842636106638</v>
+        <v>61.71842636106641</v>
       </c>
       <c r="K43" t="n">
-        <v>378.9561261587464</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L43" t="n">
-        <v>129.785668600859</v>
+        <v>448.2519426041504</v>
       </c>
       <c r="M43" t="n">
-        <v>600.9659086106519</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N43" t="n">
-        <v>580.3130859038467</v>
+        <v>580.313085903847</v>
       </c>
       <c r="O43" t="n">
-        <v>123.3892366030423</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P43" t="n">
-        <v>287.4218765914979</v>
+        <v>456.5978726797225</v>
       </c>
       <c r="Q43" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R43" t="n">
-        <v>18.04791108854245</v>
+        <v>18.04791108854247</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>74.61514823966228</v>
+        <v>74.61514823966232</v>
       </c>
       <c r="J44" t="n">
-        <v>165.1744548387383</v>
+        <v>165.1744548387387</v>
       </c>
       <c r="K44" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L44" t="n">
-        <v>307.1122435613394</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M44" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562192</v>
       </c>
       <c r="N44" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O44" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321095</v>
       </c>
       <c r="P44" t="n">
         <v>279.8544081518626</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>35.85059532462274</v>
+        <v>35.85059532462277</v>
       </c>
       <c r="J45" t="n">
-        <v>98.37677374365583</v>
+        <v>35.75699062800069</v>
       </c>
       <c r="K45" t="n">
         <v>168.1415755498899</v>
       </c>
       <c r="L45" t="n">
-        <v>226.0870982860444</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M45" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603129</v>
       </c>
       <c r="N45" t="n">
-        <v>270.8158537776819</v>
+        <v>270.8158537776822</v>
       </c>
       <c r="O45" t="n">
         <v>247.7435980350076</v>
@@ -38116,7 +38116,7 @@
         <v>198.8360788845127</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.29686991973676</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R45" t="n">
         <v>64.64981240959992</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>149.172653800147</v>
+        <v>149.1726538001471</v>
       </c>
       <c r="K46" t="n">
-        <v>378.9561261587465</v>
+        <v>101.42233366265</v>
       </c>
       <c r="L46" t="n">
-        <v>552.2198926089004</v>
+        <v>247.6896614170173</v>
       </c>
       <c r="M46" t="n">
-        <v>600.9659086106519</v>
+        <v>600.965908610652</v>
       </c>
       <c r="N46" t="n">
-        <v>252.2657029850075</v>
+        <v>580.313085903847</v>
       </c>
       <c r="O46" t="n">
-        <v>123.3892366030423</v>
+        <v>547.297569154337</v>
       </c>
       <c r="P46" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q46" t="n">
-        <v>242.9903706058367</v>
+        <v>73.09867882368326</v>
       </c>
       <c r="R46" t="n">
-        <v>18.04791108854245</v>
+        <v>18.04791108854247</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
